--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -477,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -656,6 +656,53 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Isokov Eldor Fayzullayevich</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mehnat muhofazasi va texnika xavfsizligi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>AD1460068</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3140687256008</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>998971300087</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -477,10 +477,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -612,7 +612,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amirov Akrom</t>
+          <t>Raxmatov islom Xusan o'g'li</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rus tili</t>
+          <t>O'zbek tili</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -632,74 +632,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>KA9874653</t>
+          <t>AD5538879</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1234567890123</t>
+          <t>31408950420035</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Navoiy viloyati</t>
+          <t>Toshkent viloyati</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Uchquduq tumani</t>
+          <t>Olmaliq shahri</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>+12676860109</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Isokov Eldor Fayzullayevich</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mehnat muhofazasi va texnika xavfsizligi</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>O'zbek tili</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Kunduzgi</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>AD1460068</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3140687256008</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Toshkent shahri</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Mirzo Ulugʻbek tumani</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>998971300087</t>
+          <t>998931898188</t>
         </is>
       </c>
     </row>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -477,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD7"/>
@@ -656,6 +656,194 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Oribjonov Islombek Xusniddin o'g'li</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mehnat muhofazasi va texnika xavfsizligi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sirtqi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>AD5879006</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>53006075130046</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Andijon viloyati</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jalaquduq tuman</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>998335567538</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ismoilov Alisher Adxamovich</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Menejment</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sirtqi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>AD0716061</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>51110056750049</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yunusobod tumani</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>998337034905</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Miryaxyoyev Miralisher Mirxaydar o'g'li</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Metrologiya va standartlashtirish</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sirtqi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>AD7947777</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>30605986780015</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Qibray tumani</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>998937037330</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>/start</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Menejment</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sirtqi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>AB6908896</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>51503016520051</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Shayxontohur tumani</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>998990677063</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharm\MIMA_Bot\file_service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A5DA78-9675-41D2-8E82-E9C7AA8AC245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEBF801-7310-41CE-BD41-FA7C2D697359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>Mehnat va ijtimoiy munosabatlar akademiyasi 2025-2026 o'quv yiliga xujjat topshirgan abituryentlar ruyhati</t>
   </si>
@@ -49,40 +49,22 @@
     <t>Tuman</t>
   </si>
   <si>
+    <t>Telegram raqami</t>
+  </si>
+  <si>
     <t>Telefon raqami</t>
   </si>
   <si>
-    <t>Amirov Akrom</t>
-  </si>
-  <si>
-    <t>Bugalteriya hisobi</t>
+    <t>Sana</t>
+  </si>
+  <si>
+    <t>Raxmatov islom Xusan o'g'li</t>
+  </si>
+  <si>
+    <t>Mehnat muhofazasi va texnika xavfsizligi</t>
   </si>
   <si>
     <t>O'zbek tili</t>
-  </si>
-  <si>
-    <t>Kunduzgi</t>
-  </si>
-  <si>
-    <t>AB8098565</t>
-  </si>
-  <si>
-    <t>1234567890123</t>
-  </si>
-  <si>
-    <t>Xorazm viloyati</t>
-  </si>
-  <si>
-    <t>Urganch shahri</t>
-  </si>
-  <si>
-    <t>+12676860109</t>
-  </si>
-  <si>
-    <t>Raxmatov islom Xusan o'g'li</t>
-  </si>
-  <si>
-    <t>Mehnat muhofazasi va texnika xavfsizligi</t>
   </si>
   <si>
     <t>Sirtqi</t>
@@ -273,6 +255,7 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -312,11 +295,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -324,12 +307,8 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -339,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -350,10 +329,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -635,23 +613,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="10" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -665,9 +645,9 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
@@ -699,48 +679,54 @@
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -763,51 +749,51 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
         <v>38</v>
@@ -824,10 +810,10 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
@@ -836,27 +822,27 @@
         <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>48</v>
@@ -865,27 +851,27 @@
         <v>49</v>
       </c>
       <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>51</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>54</v>
@@ -894,56 +880,56 @@
         <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
@@ -952,47 +938,18 @@
         <v>68</v>
       </c>
       <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
         <v>69</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>70</v>
-      </c>
-      <c r="I11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharm\MIMA_Bot\file_service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asosiy\Proyekt\MIMA_Bot\file_service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEBF801-7310-41CE-BD41-FA7C2D697359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE643F2B-245E-47B7-A375-68C7D7F64221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
   <si>
     <t>Mehnat va ijtimoiy munosabatlar akademiyasi 2025-2026 o'quv yiliga xujjat topshirgan abituryentlar ruyhati</t>
   </si>
@@ -85,6 +85,9 @@
     <t>998931898188</t>
   </si>
   <si>
+    <t>2025-04-12</t>
+  </si>
+  <si>
     <t>Oribjonov Islombek Xusniddin o'g'li</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t>998335567538</t>
   </si>
   <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
     <t>Ismoilov Alisher Adxamovich</t>
   </si>
   <si>
@@ -124,6 +130,9 @@
     <t>998337034905</t>
   </si>
   <si>
+    <t>2025-04-14</t>
+  </si>
+  <si>
     <t>Miryaxyoyev Miralisher Mirxaydar o'g'li</t>
   </si>
   <si>
@@ -142,6 +151,9 @@
     <t>998937037330</t>
   </si>
   <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
     <t>abdullayev muhammad ikrom ogli</t>
   </si>
   <si>
@@ -163,6 +175,9 @@
     <t>998972312424</t>
   </si>
   <si>
+    <t>2025-04-16</t>
+  </si>
+  <si>
     <t>Mahkamov Doniyor Baxtiyer o'g'li</t>
   </si>
   <si>
@@ -178,6 +193,9 @@
     <t>998933231850</t>
   </si>
   <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
     <t>Olimov O'ralbek Dilshod o'g'li</t>
   </si>
   <si>
@@ -199,6 +217,9 @@
     <t>998919862474</t>
   </si>
   <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
     <t>JALILOVA NOZIMA MUXIDDIN QIZI</t>
   </si>
   <si>
@@ -220,6 +241,9 @@
     <t>+998955259606</t>
   </si>
   <si>
+    <t>2025-04-19</t>
+  </si>
+  <si>
     <t>Tillaxodjayev Nurulloxon Axmadullayevich</t>
   </si>
   <si>
@@ -233,6 +257,60 @@
   </si>
   <si>
     <t>998902170505</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>Eshmuratov Javohir Jahongir o'g'li</t>
+  </si>
+  <si>
+    <t>Kunduzgi</t>
+  </si>
+  <si>
+    <t>AD1587887</t>
+  </si>
+  <si>
+    <t>52605066240019</t>
+  </si>
+  <si>
+    <t>Surxondaryo viloyati</t>
+  </si>
+  <si>
+    <t>Termiz shahri</t>
+  </si>
+  <si>
+    <t>998975520026</t>
+  </si>
+  <si>
+    <t>+998975520026</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>Chinpulotova Ruxsora Bekpulot qizi</t>
+  </si>
+  <si>
+    <t>Ijtimoiy ish</t>
+  </si>
+  <si>
+    <t>AE2391801</t>
+  </si>
+  <si>
+    <t>41211925360013</t>
+  </si>
+  <si>
+    <t>Buxoro viloyati</t>
+  </si>
+  <si>
+    <t>Shofirkon tumani</t>
+  </si>
+  <si>
+    <t>998935336133</t>
+  </si>
+  <si>
+    <t>+998941339133</t>
   </si>
 </sst>
 </file>
@@ -613,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,10 +792,16 @@
       <c r="I3" t="s">
         <v>20</v>
       </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -729,27 +813,33 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -758,27 +848,33 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -787,27 +883,33 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -816,27 +918,33 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -845,27 +953,33 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -874,27 +988,33 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -903,27 +1023,33 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -932,19 +1058,95 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>78</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
@@ -1462,6 +1462,63 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Aydinova Narine Sergeevna</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>AD6055389</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>60402085220078</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>998909340132</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>+998935617938</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
@@ -1519,6 +1519,120 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Xudoyorov Muslimjon Mominjon ogli</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Sirtqi</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>AD7761080</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>31103914340034</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Fargona viloyati</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Margʻilon tumani</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>998901669999</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>+998916588000</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Adizov Ismoiljon</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sirtqi</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>AD4325461</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>32804881070096</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>998903490733</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>+998936578677</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2025-04-27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asosiy\PyCharm\MIMA_Bot\file_service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32118DD6-F4F7-47B7-B4B0-4191BC65FFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85E6EFF-C7CD-47E1-AB28-FE365400651E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="150">
   <si>
     <t>Mehnat va ijtimoiy munosabatlar akademiyasi 2025-2026 o'quv yiliga xujjat topshirgan abituryentlar ruyhati</t>
   </si>
@@ -413,6 +413,63 @@
   </si>
   <si>
     <t>2025-04-24</t>
+  </si>
+  <si>
+    <t>Aydinova Narine Sergeevna</t>
+  </si>
+  <si>
+    <t>Rus tili</t>
+  </si>
+  <si>
+    <t>AD6055389</t>
+  </si>
+  <si>
+    <t>60402085220078</t>
+  </si>
+  <si>
+    <t>998909340132</t>
+  </si>
+  <si>
+    <t>+998935617938</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>Xudoyorov Muslimjon Mominjon ogli</t>
+  </si>
+  <si>
+    <t>AD7761080</t>
+  </si>
+  <si>
+    <t>31103914340034</t>
+  </si>
+  <si>
+    <t>Margʻilon tumani</t>
+  </si>
+  <si>
+    <t>998901669999</t>
+  </si>
+  <si>
+    <t>+998916588000</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>Adizov Ismoiljon</t>
+  </si>
+  <si>
+    <t>AD4325461</t>
+  </si>
+  <si>
+    <t>32804881070096</t>
+  </si>
+  <si>
+    <t>998903490733</t>
+  </si>
+  <si>
+    <t>+998936578677</t>
   </si>
 </sst>
 </file>
@@ -793,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="A19" sqref="A19:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,7 +1483,111 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21" t="s">
+        <v>149</v>
+      </c>
+      <c r="K21" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asosiy\PyCharm\MIMA_Bot\file_service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asosiy\Proyekt\MIMA_Bot\file_service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85E6EFF-C7CD-47E1-AB28-FE365400651E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BBCD05-F216-435A-AF92-1401DDCBA7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="149">
   <si>
     <t>Mehnat va ijtimoiy munosabatlar akademiyasi 2025-2026 o'quv yiliga xujjat topshirgan abituryentlar ruyhati</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>Jalaquduq tuman</t>
-  </si>
-  <si>
-    <t>998335567538</t>
   </si>
   <si>
     <t>2025-04-13</t>
@@ -555,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -570,6 +567,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -853,7 +851,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD21"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,609 +981,609 @@
       <c r="H4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="6">
+        <v>998906222398</v>
+      </c>
+      <c r="J4" s="6">
+        <v>998906222398</v>
+      </c>
+      <c r="K4" t="s">
         <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
         <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
       <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
         <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>49</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
         <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>53</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
         <v>54</v>
       </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>55</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" t="s">
         <v>56</v>
-      </c>
-      <c r="J8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
         <v>59</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>61</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>62</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>63</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" t="s">
         <v>64</v>
-      </c>
-      <c r="J9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
         <v>67</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>68</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>69</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>70</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>71</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" t="s">
         <v>72</v>
-      </c>
-      <c r="J10" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>75</v>
-      </c>
-      <c r="F11" t="s">
-        <v>76</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
       </c>
       <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
         <v>77</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
         <v>78</v>
-      </c>
-      <c r="J11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>80</v>
       </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>81</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>82</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>83</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>84</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>85</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>86</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>87</v>
-      </c>
-      <c r="K12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
         <v>89</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
         <v>90</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>91</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>92</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>93</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>94</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>95</v>
       </c>
-      <c r="J13" t="s">
-        <v>96</v>
-      </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
         <v>97</v>
       </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>98</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>99</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>100</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>101</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>102</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>103</v>
-      </c>
-      <c r="K14" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
         <v>105</v>
       </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>106</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" t="s">
         <v>107</v>
       </c>
-      <c r="G15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>108</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" t="s">
         <v>109</v>
-      </c>
-      <c r="J15" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
         <v>111</v>
       </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>112</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>113</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>114</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>115</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>116</v>
       </c>
-      <c r="J16" t="s">
-        <v>117</v>
-      </c>
       <c r="K16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
         <v>118</v>
       </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>119</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
         <v>120</v>
       </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>121</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>122</v>
       </c>
-      <c r="J17" t="s">
-        <v>123</v>
-      </c>
       <c r="K17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
         <v>124</v>
       </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>125</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
         <v>126</v>
       </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>127</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>128</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>129</v>
-      </c>
-      <c r="K18" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
         <v>131</v>
       </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
         <v>132</v>
       </c>
-      <c r="D19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>133</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" t="s">
         <v>134</v>
       </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>135</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>136</v>
-      </c>
-      <c r="K19" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
         <v>138</v>
       </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>139</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" t="s">
         <v>140</v>
       </c>
-      <c r="G20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>141</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>142</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>143</v>
-      </c>
-      <c r="K20" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
         <v>145</v>
       </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>146</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" t="s">
         <v>147</v>
       </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>148</v>
       </c>
-      <c r="J21" t="s">
-        <v>149</v>
-      </c>
       <c r="K21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
@@ -2029,6 +2029,348 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Begamov Rozimbek Gavsiddin ogli</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>AD1886290</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>50610055710026</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Mirishkor tumani</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>998973141455</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>+998973141455</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Shukuraliyeva Nargiza Erbolat qizi</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>AD8837258</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>62307076620047</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>998940862826</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>+998993675319</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Murodova Feruza</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Psixologiya</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>AD5867549</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>60908076930088</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>998331707506</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>+998333730181</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Xolmatov Sarvar Jamshid o'g'li</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>AD4991788</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>50704076740068</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Yuqori Chirchiq tumani</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>998992768607</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>+998997358586</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Abdurashidov Sherzodbek Abduvaxid o'g'li</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>AD4439901</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>50905065130039</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Andijon viloyati</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Jalaquduq tuman</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>998902686363</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>+998333322203</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mirzaqobulov Javohirbek Bahtiyorjon o'g'li</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>AD5914844</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>30707975150060</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Andijon viloyati</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Qoʻrgʻontepa tumani</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>998990994708</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>+998994604708</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2025-05-11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:XFD22"/>
@@ -1747,6 +1747,63 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Amirov Akrom</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>AA1234567</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>12345678901234</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Olmaliq shahri</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>+998939849910</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>+998945289910</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
@@ -2371,6 +2371,804 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Raxmatov Ogabek</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>AD4419590</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>50908076150018</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>998336373784</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>+998931984133</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Boboqulova Bahora Sherzod qizi</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>AD6081128</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>60803066050143</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Ishtixon tumani</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>998944292086</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>+998944292086</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Malikova Shoxidaxon Zakirjanovna</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>AD7703787</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>41901891230031</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Andijon viloyati</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Andijon shahri</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>998999767752</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>+998999767752</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Qudratov Sarvar Raximjon ogli</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>AD3368539</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>50604075670019</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Olmazor tumani</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>998940473807</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>+998330073407</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>O'roqov Xushnudbek Xurshid o'g'li</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>AE2454790</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>51804076540053</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Shayxontohur tumani</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>998999840771</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>+998999840771</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Iskandarov Sarvarbek Iskandar o'g'li</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>AD4799601</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>52911076170021</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Kattaqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>998944475702</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>+998944475702</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Numonjonov Zuhriddin Abdulhafiz ogli</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>AD7653210</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>50612077080048</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Fargona viloyati</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Margʻilon tumani</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>998911245111</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>+998331590053</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Muhammadaliyev Jahongir Mahmudjon ogli</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Psixologiya</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>AD5077856</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>50709066740028</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Yuqori Chirchiq tumani</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>998333515134</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>+998770174575</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Uaboyeva Sarvinoz Yusuf qizi</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>AD2635624</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>63011066300059</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Surxondaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Qumqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>998941727977</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>+998508890637</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Xasan Saidmurodov</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>AD1999493</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>52305066180114</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Payariq tumani</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>998957570177</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>+998997787117</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Abdurxmon Tuychibayev Abdudjabbar o'g'li</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Bugalteriya hisobi</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>AD7006138</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>51409076620044</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>998882802529</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>+998882802529</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Rustamxojayev Javohirxoja muzaffarxon ogli</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>AD4246020</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>52001076610011</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Olmazor tumani</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>998974432526</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>+998974432526</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Nabiyev Sirojiddin Farohiddin o'g'li</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>AD6788338</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>50102085150054</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Andijon viloyati</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Asaka tumani</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>998507404744</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>+998914854913</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MAMASALIEV SOBIR BAXTIYOROVICH</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Hayot faoliyati xavfsizligi</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>AC2787580</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>52202047970013</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>998944059922</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>+998880132242</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:XFD22"/>
@@ -1804,6 +1804,120 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ATAMATOV ABDUXALIL SALAMOVICH</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mehnat muhofazasi va texnika xavfsizligi</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>AB1234567</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>12345678901234</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Yakkasaroy tumani</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>+12676860109</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>+998945289910</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ATAMATOV ABDUXALIL SALAMOVICH</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mehnat muhofazasi va texnika xavfsizligi</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>AB1234567</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>12345678901234</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Yakkasaroy tumani</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>+12676860109</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>+998945289910</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:XFD22"/>
@@ -1918,6 +1918,63 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Amirov Akrom Eshali ogli</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Hayot faoliyati xavfsizligi</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>AB5554414</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>12345678901234</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Urganch shahri</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>+12676860109</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>+998945289910</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -8,7 +8,9 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Лист1'!$D$1:$D$66</definedName>
+  </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -106,11 +108,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -454,10 +456,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -476,21 +478,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Mehnat va ijtimoiy munosabatlar akademiyasi 2025-2026 o'quv yiliga xujjat topshirgan abituryentlar ruyhati</t>
         </is>
       </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="5" t="n"/>
-      <c r="F1" s="5" t="n"/>
-      <c r="G1" s="5" t="n"/>
-      <c r="H1" s="5" t="n"/>
-      <c r="I1" s="5" t="n"/>
-      <c r="J1" s="5" t="n"/>
-      <c r="K1" s="5" t="n"/>
+      <c r="B1" s="6" t="n"/>
+      <c r="C1" s="6" t="n"/>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="6" t="n"/>
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
+      <c r="I1" s="6" t="n"/>
+      <c r="J1" s="6" t="n"/>
+      <c r="K1" s="6" t="n"/>
       <c r="L1" s="1" t="n"/>
       <c r="M1" s="1" t="n"/>
     </row>
@@ -554,7 +556,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raxmatov islom Xusan o'g'li</t>
+          <t>Oribjonov Islombek Xusniddin o'g'li</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -569,54 +571,50 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AD5538879</t>
+          <t>AD5879006</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>31408950420035</t>
+          <t>53006075130046</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Toshkent viloyati</t>
+          <t>Andijon viloyati</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Olmaliq shahri</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>998931898188</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>998931898188</t>
-        </is>
+          <t>Jalaquduq tuman</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>998906222398</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>998906222398</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-13</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Oribjonov Islombek Xusniddin o'g'li</t>
+          <t>Eshmuratov Javohir Jahongir o'g'li</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mehnat muhofazasi va texnika xavfsizligi</t>
+          <t>Yurisprudensiya</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -626,70 +624,74 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AD5879006</t>
+          <t>AD1587887</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>53006075130046</t>
+          <t>52605066240019</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Andijon viloyati</t>
+          <t>Surxondaryo viloyati</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Jalaquduq tuman</t>
-        </is>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>998906222398</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>998906222398</v>
+          <t>Termiz shahri</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>998975520026</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>+998975520026</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-21</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ismoilov Alisher Adxamovich</t>
+          <t>Aydinova Narine Sergeevna</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Menejment</t>
+          <t>Yurisprudensiya</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>O'zbek tili</t>
+          <t>Rus tili</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AD0716061</t>
+          <t>AD6055389</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>51110056750049</t>
+          <t>60402085220078</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -699,34 +701,34 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Yunusobod tumani</t>
+          <t>Mirzo Ulugʻbek tumani</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>998337034905</t>
+          <t>998909340132</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>998337034905</t>
+          <t>+998935617938</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Miryaxyoyev Miralisher Mirxaydar o'g'li</t>
+          <t>Begamov Rozimbek Gavsiddin ogli</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Metrologiya va standartlashtirish</t>
+          <t>Yurisprudensiya</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -736,49 +738,49 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AD7947777</t>
+          <t>AD1886290</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>30605986780015</t>
+          <t>50610055710026</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Toshkent viloyati</t>
+          <t>Qashqadaryo viloyati</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Qibray tumani</t>
+          <t>Mirishkor tumani</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>998937037330</t>
+          <t>998973141455</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>998937037330</t>
+          <t>+998973141455</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-05-08</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>abdullayev muhammad ikrom ogli</t>
+          <t>Shukuraliyeva Nargiza Erbolat qizi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -793,54 +795,54 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AE1233724</t>
+          <t>AD8837258</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>30403915920022</t>
+          <t>62307076620047</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Namangan viloyati</t>
+          <t>Toshkent shahri</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Toʻraqoʻrgʻon tumani</t>
+          <t>Mirzo Ulugʻbek tumani</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>998972312424</t>
+          <t>998940862826</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>998972312424</t>
+          <t>+998993675319</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mahkamov Doniyor Baxtiyer o'g'li</t>
+          <t>Murodova Feruza</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Menejment</t>
+          <t>Psixologiya</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -850,17 +852,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AD2721331</t>
+          <t>AD5867549</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>30601966600067</t>
+          <t>60908076930088</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -875,29 +877,29 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>998933231850</t>
+          <t>998331707506</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>998933231850</t>
+          <t>+998333730181</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-05-08</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Olimov O'ralbek Dilshod o'g'li</t>
+          <t>Xolmatov Sarvar Jamshid o'g'li</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Psixologiya</t>
+          <t>Yurisprudensiya</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -907,54 +909,54 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AC2172151</t>
+          <t>AD4991788</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>50505025830058</t>
+          <t>50704076740068</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Navoiy viloyati</t>
+          <t>Toshkent viloyati</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Xatirchi tumani</t>
+          <t>Yuqori Chirchiq tumani</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>998919862474</t>
+          <t>998992768607</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>998919862474</t>
+          <t>+998997358586</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-05-08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JALILOVA NOZIMA MUXIDDIN QIZI</t>
+          <t>Abdurashidov Sherzodbek Abduvaxid o'g'li</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Inson resurslarini boshqarish</t>
+          <t>Yurisprudensiya</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -964,49 +966,49 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AD1294680</t>
+          <t>AD4439901</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>60103065430073</t>
+          <t>50905065130039</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Jizzax viloyati</t>
+          <t>Andijon viloyati</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Baxmal tumani</t>
+          <t>Jalaquduq tuman</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>+998955259606</t>
+          <t>998902686363</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>+998955259606</t>
+          <t>+998333322203</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-05-10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tillaxodjayev Nurulloxon Axmadullayevich</t>
+          <t>Mirzaqobulov Javohirbek Bahtiyorjon o'g'li</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1021,17 +1023,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AD7314939</t>
+          <t>AD5914844</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>31908861240118</t>
+          <t>30707975150060</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1041,29 +1043,29 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Andijon shahri</t>
+          <t>Qoʻrgʻontepa tumani</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>998902170505</t>
+          <t>998990994708</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>998902170505</t>
+          <t>+998994604708</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-05-11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Eshmuratov Javohir Jahongir o'g'li</t>
+          <t>Raxmatov Ogabek</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1083,49 +1085,49 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AD1587887</t>
+          <t>AD4419590</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>52605066240019</t>
+          <t>50908076150018</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Surxondaryo viloyati</t>
+          <t>Toshkent shahri</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Termiz shahri</t>
+          <t>Yashnaobod tumani</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>998975520026</t>
+          <t>998336373784</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>+998975520026</t>
+          <t>+998931984133</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-05-12</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chinpulotova Ruxsora Bekpulot qizi</t>
+          <t>Boboqulova Bahora Sherzod qizi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ijtimoiy ish</t>
+          <t>Yurisprudensiya</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1135,49 +1137,49 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AE2391801</t>
+          <t>AD6081128</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>41211925360013</t>
+          <t>60803066050143</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Buxoro viloyati</t>
+          <t>Samarqand viloyati</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Shofirkon tumani</t>
+          <t>Ishtixon tumani</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>998935336133</t>
+          <t>998944292086</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>+998941339133</t>
+          <t>+998944292086</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-05-12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Suhrob ismailov Sardorbek ogli</t>
+          <t>Malikova Shoxidaxon Zakirjanovna</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1192,49 +1194,49 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AD5586963</t>
+          <t>AD7703787</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>12345678911111</t>
+          <t>41901891230031</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Xorazm viloyati</t>
+          <t>Andijon viloyati</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Yangibozor tumani</t>
+          <t>Andijon shahri</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>998999669945</t>
+          <t>998999767752</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>+998940668775</t>
+          <t>+998999767752</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-05-13</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Boliqulov Baxtiyor Rahmonqulovich</t>
+          <t>Qudratov Sarvar Raximjon ogli</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1249,49 +1251,49 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AD4094417</t>
+          <t>AD3368539</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>30704785800013</t>
+          <t>50604075670019</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Navoiy viloyati</t>
+          <t>Toshkent shahri</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Nurota tumani</t>
+          <t>Olmazor tumani</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>+998933154384</t>
+          <t>998940473807</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>+998933154384</t>
+          <t>+998330073407</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-05-13</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Oktamov Ulugbek Otkirjon ogli</t>
+          <t>O'roqov Xushnudbek Xurshid o'g'li</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1306,54 +1308,54 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AB3006928</t>
+          <t>AE2454790</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>33011996910037</t>
+          <t>51804076540053</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Fargona viloyati</t>
+          <t>Toshkent shahri</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Bagʻdod tumani</t>
+          <t>Shayxontohur tumani</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>998909480553</t>
+          <t>998999840771</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>+998958081871</t>
+          <t>+998999840771</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-05-14</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Muhamedaliyeva Feruza</t>
+          <t>Iskandarov Sarvarbek Iskandar o'g'li</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Inson resurslarini boshqarish</t>
+          <t>Yurisprudensiya</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1363,49 +1365,49 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AC0466042</t>
+          <t>AD4799601</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>42607966540072</t>
+          <t>52911076170021</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Toshkent shahri</t>
+          <t>Samarqand viloyati</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Yashnaobod tumani</t>
+          <t>Kattaqoʻrgʻon tumani</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>998935193039</t>
+          <t>998944475702</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>+998935193039</t>
+          <t>+998944475702</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-05-14</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Babaniyozova Surayyo Davronbek qizi</t>
+          <t>Numonjonov Zuhriddin Abdulhafiz ogli</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1420,59 +1422,59 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AA9869633</t>
+          <t>AD7653210</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>41702923080033</t>
+          <t>50612077080048</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Toshkent shahri</t>
+          <t>Fargona viloyati</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Yangihayot tumani</t>
+          <t>Margʻilon tumani</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>998958111702</t>
+          <t>998911245111</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>+998958111702</t>
+          <t>+998331590053</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-05-14</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aydinova Narine Sergeevna</t>
+          <t>Muhammadaliyev Jahongir Mahmudjon ogli</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Yurisprudensiya</t>
+          <t>Psixologiya</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Rus tili</t>
+          <t>O'zbek tili</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1482,44 +1484,44 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AD6055389</t>
+          <t>AD5077856</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>60402085220078</t>
+          <t>50709066740028</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Toshkent shahri</t>
+          <t>Toshkent viloyati</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Mirzo Ulugʻbek tumani</t>
+          <t>Yuqori Chirchiq tumani</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>998909340132</t>
+          <t>998333515134</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>+998935617938</t>
+          <t>+998770174575</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-05-14</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Xudoyorov Muslimjon Mominjon ogli</t>
+          <t>Uaboyeva Sarvinoz Yusuf qizi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1534,49 +1536,49 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AD7761080</t>
+          <t>AD2635624</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>31103914340034</t>
+          <t>63011066300059</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Fargona viloyati</t>
+          <t>Surxondaryo viloyati</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Margʻilon tumani</t>
+          <t>Qumqoʻrgʻon tumani</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>998901669999</t>
+          <t>998941727977</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>+998916588000</t>
+          <t>+998508890637</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-15</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Adizov Ismoiljon</t>
+          <t>Xasan Saidmurodov</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1591,54 +1593,54 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AD4325461</t>
+          <t>AD1999493</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>32804881070096</t>
+          <t>52305066180114</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Toshkent shahri</t>
+          <t>Samarqand viloyati</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Mirzo Ulugʻbek tumani</t>
+          <t>Payariq tumani</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>998903490733</t>
+          <t>998957570177</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>+998936578677</t>
+          <t>+998997787117</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-16</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Alijonov Siddiqjon Olimjon O'g'li</t>
+          <t>Abdurxmon Tuychibayev Abdudjabbar o'g'li</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Yurisprudensiya</t>
+          <t>Bugalteriya hisobi</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1648,49 +1650,49 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AB4599194</t>
+          <t>AD7006138</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>31711996900048</t>
+          <t>51409076620044</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fargona viloyati</t>
+          <t>Toshkent shahri</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Oltiariq tumani</t>
+          <t>Yashnaobod tumani</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>998998829917</t>
+          <t>998882802529</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>+998902311780</t>
+          <t>+998882802529</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-05-16</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Iskenderov Bexruz Faxriddin ogli</t>
+          <t>Rustamxojayev Javohirxoja muzaffarxon ogli</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1705,49 +1707,49 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AD6959387</t>
+          <t>AD4246020</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>52901087310017</t>
+          <t>52001076610011</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Qoraqalpogʻiston Respublikasi</t>
+          <t>Toshkent shahri</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Ellikqalʼa tumani</t>
+          <t>Olmazor tumani</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>998994551521</t>
+          <t>998974432526</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>+998551100015</t>
+          <t>+998974432526</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-05-19</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>dinarbek botirov</t>
+          <t>Nabiyev Sirojiddin Farohiddin o'g'li</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1762,74 +1764,74 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AD0544034</t>
+          <t>AD6788338</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>51807055590074</t>
+          <t>50102085150054</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Toshkent shahri</t>
+          <t>Andijon viloyati</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Uchtepa tumani</t>
+          <t>Asaka tumani</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>+998909213696</t>
+          <t>998507404744</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>+998945949339</t>
+          <t>+998914854913</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-19</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Uzoqov Sohibjon Muhiddinovich</t>
+          <t>MAMASALIEV SOBIR BAXTIYOROVICH</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Yurisprudensiya</t>
+          <t>Hayot faoliyati xavfsizligi</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>O'zbek tili</t>
+          <t>Rus tili</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AD5004957</t>
+          <t>AC2787580</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>30909915590020</t>
+          <t>52202047970013</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1844,24 +1846,24 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>998909200096</t>
+          <t>998944059922</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>+998330100909</t>
+          <t>+998880132242</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-21</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Uzoqova Shaxzodaxon Rasulovna</t>
+          <t>Samandarova Sevara Sardor qizi</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1876,54 +1878,54 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AD2834359</t>
+          <t>AC0287736</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>60506048660029</t>
+          <t>60809027150015</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Toshkent shahri</t>
+          <t>Qoraqalpogʻiston Respublikasi</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Yashnaobod tumani</t>
+          <t>Nukus shahri</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>998909200096</t>
+          <t>998882017682</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>+998338980099</t>
+          <t>+998882017682</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-23</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Xodjayeva Maftuna Toxirjon qizi</t>
+          <t>Samatov Abdusamat Abdusattor ogli</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Menejment</t>
+          <t>Yurisprudensiya</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1933,54 +1935,54 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>AD6502351</t>
+          <t>AD3980911</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>41608922960018</t>
+          <t>51708076720045</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sirdaryo viloyati</t>
+          <t>Toshkent viloyati</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Shirin shahri</t>
+          <t>Boʻstonliq tumani</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>998901231199</t>
+          <t>998932159764</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>+998902414441</t>
+          <t>+998900249764</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Baxodirova Madina Alisher qizi</t>
+          <t>Qurbonov Begzod</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Yurisprudensiya</t>
+          <t>Menejment</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1990,17 +1992,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>AD6893021</t>
+          <t>AD0847437</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>62003086600038</t>
+          <t>50709058660037</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2010,29 +2012,29 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Uchtepa tumani</t>
+          <t>Mirzo Ulugʻbek tumani</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>998900912767</t>
+          <t>998900384886</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>+998903317425</t>
+          <t>+998334602323</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Begamov Rozimbek Gavsiddin ogli</t>
+          <t>Madrahimov Nodirbek Maxmudovich</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2052,49 +2054,49 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>AD1886290</t>
+          <t>AD0733769</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>50610055710026</t>
+          <t>51904057190023</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Qashqadaryo viloyati</t>
+          <t>Xorazm viloyati</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Mirishkor tumani</t>
+          <t>Yangibozor tumani</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>998973141455</t>
+          <t>998940668775</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>+998973141455</t>
+          <t>+998940668775</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Shukuraliyeva Nargiza Erbolat qizi</t>
+          <t>Tuxtayev Abbos Eshpulat ugli</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Yurisprudensiya</t>
+          <t>Bugalteriya hisobi</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2109,49 +2111,49 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>AD8837258</t>
+          <t>AD4790831</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>62307076620047</t>
+          <t>51505075630124</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Toshkent shahri</t>
+          <t>Qashqadaryo viloyati</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Mirzo Ulugʻbek tumani</t>
+          <t>Qamashi tumani</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>998940862826</t>
+          <t>998773909747</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>+998993675319</t>
+          <t>+998996692968</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Murodova Feruza</t>
+          <t>Yusupjanov Javohir Sharifjon o'g'li</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Psixologiya</t>
+          <t>Bugalteriya hisobi</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2166,44 +2168,44 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>AD5867549</t>
+          <t>AD3666113</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>60908076930088</t>
+          <t>50201075980054</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Toshkent shahri</t>
+          <t>Toshkent viloyati</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Mirzo Ulugʻbek tumani</t>
+          <t>Qibray tumani</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>998331707506</t>
+          <t>998959660704</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>+998333730181</t>
+          <t>+998950388080</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Xolmatov Sarvar Jamshid o'g'li</t>
+          <t>Oripov Ilyosbek Ilhomjon o'g'li</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2223,44 +2225,44 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>AD4991788</t>
+          <t>AD0231077</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>50704076740068</t>
+          <t>51002056940011</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Toshkent viloyati</t>
+          <t>Fargona viloyati</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Yuqori Chirchiq tumani</t>
+          <t>Qo‘qon shahri</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>998992768607</t>
+          <t>+998971002994</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>+998997358586</t>
+          <t>+998971002994</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Abdurashidov Sherzodbek Abduvaxid o'g'li</t>
+          <t>Tursunbayev Inomjon</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2280,44 +2282,44 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>AD4439901</t>
+          <t>AD5089123</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>50905065130039</t>
+          <t>50211076360030</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Andijon viloyati</t>
+          <t>Sirdaryo viloyati</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Jalaquduq tuman</t>
+          <t>Sirdaryo tumani</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>998902686363</t>
+          <t>998938321107</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>+998333322203</t>
+          <t>+998938321107</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2025-05-10</t>
+          <t>2025-05-29</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mirzaqobulov Javohirbek Bahtiyorjon o'g'li</t>
+          <t>Ibraimov Azizbek Alisherovich</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2337,44 +2339,44 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>AD5914844</t>
+          <t>AD3945152</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>30707975150060</t>
+          <t>50603077340056</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Andijon viloyati</t>
+          <t>Qoraqalpogʻiston Respublikasi</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Qoʻrgʻontepa tumani</t>
+          <t>Nukus shahri</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>998990994708</t>
+          <t>998942689525</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>+998994604708</t>
+          <t>+998943830603</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-29</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Raxmatov Ogabek</t>
+          <t>Fayziyeva Sevinchbonu Jasur qizi</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2394,49 +2396,49 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>AD4419590</t>
+          <t>AD2031410</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>50908076150018</t>
+          <t>60310056130045</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Toshkent shahri</t>
+          <t>Samarqand viloyati</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Yashnaobod tumani</t>
+          <t>Samarqand shahri</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>998336373784</t>
+          <t>998915451747</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>+998931984133</t>
+          <t>+998973961120</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-29</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Boboqulova Bahora Sherzod qizi</t>
+          <t>Mahmudov Faxriddin Asomiddin ogli</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Yurisprudensiya</t>
+          <t>Bugalteriya hisobi</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2451,49 +2453,49 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>AD6081128</t>
+          <t>AD0641780</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>60803066050143</t>
+          <t>31801931771247</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Samarqand viloyati</t>
+          <t>Toshkent shahri</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Ishtixon tumani</t>
+          <t>Mirzo Ulugʻbek tumani</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>998944292086</t>
+          <t>998974000350</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>+998944292086</t>
+          <t>+998958681883</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-30</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Malikova Shoxidaxon Zakirjanovna</t>
+          <t>Nabiyev Mexroj</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Yurisprudensiya</t>
+          <t>Menejment</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2508,54 +2510,54 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AD7703787</t>
+          <t>AD7998935</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>41901891230031</t>
+          <t>52403070005091</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Andijon viloyati</t>
+          <t>Surxondaryo viloyati</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Andijon shahri</t>
+          <t>Termiz shahri</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>998999767752</t>
+          <t>998932471114</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>+998999767752</t>
+          <t>+998932471114</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-31</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Qudratov Sarvar Raximjon ogli</t>
+          <t>Avezova Malika</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Yurisprudensiya</t>
+          <t>Inson resurslarini boshqarish</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>O'zbek tili</t>
+          <t>Rus tili</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2565,12 +2567,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AD3368539</t>
+          <t>AD3650780</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>50604075670019</t>
+          <t>61804077050048</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2580,29 +2582,29 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Olmazor tumani</t>
+          <t>Mirzo Ulugʻbek tumani</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>998940473807</t>
+          <t>998949449446</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>+998330073407</t>
+          <t>+998931577751</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-06-01</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>O'roqov Xushnudbek Xurshid o'g'li</t>
+          <t>Sanjar Elmurodov Abdusamat o'g'li</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2622,12 +2624,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AE2454790</t>
+          <t>AE2766401</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>51804076540053</t>
+          <t>52502076170030</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2637,34 +2639,34 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Shayxontohur tumani</t>
+          <t>Yashnaobod tumani</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>998999840771</t>
+          <t>998505257371</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>+998999840771</t>
+          <t>+998904497775</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-06-03</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Iskandarov Sarvarbek Iskandar o'g'li</t>
+          <t>Rajabova Inobat Kazakovna</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Yurisprudensiya</t>
+          <t>Inson resurslarini boshqarish</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2679,44 +2681,44 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>AD4799601</t>
+          <t>AD0738169</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>52911076170021</t>
+          <t>42502873140048</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Samarqand viloyati</t>
+          <t>Toshkent shahri</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Kattaqoʻrgʻon tumani</t>
+          <t>Yunusobod tumani</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>998944475702</t>
+          <t>998997688774</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>+998944475702</t>
+          <t>+998997688774</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-06-03</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Numonjonov Zuhriddin Abdulhafiz ogli</t>
+          <t>Sharipov Shaxriyor</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2726,7 +2728,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>O'zbek tili</t>
+          <t>Rus tili</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2736,49 +2738,49 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>AD7653210</t>
+          <t>AD2257039</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>50612077080048</t>
+          <t>52410066180061</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Fargona viloyati</t>
+          <t>Samarqand viloyati</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Margʻilon tumani</t>
+          <t>Samarqand shahri</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>998911245111</t>
+          <t>998990986842</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>+998331590053</t>
+          <t>+998915277471</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-06-04</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Muhammadaliyev Jahongir Mahmudjon ogli</t>
+          <t>Fayzullayeva Madinabonu Farhod qizi</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Psixologiya</t>
+          <t>Yurisprudensiya</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2793,12 +2795,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>AD5077856</t>
+          <t>AD3993175</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>50709066740028</t>
+          <t>60407076600062</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2808,29 +2810,29 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Yuqori Chirchiq tumani</t>
+          <t>Qibray tumani</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>998333515134</t>
+          <t>998997048361</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>+998770174575</t>
+          <t>+998997048361</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-06-04</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Uaboyeva Sarvinoz Yusuf qizi</t>
+          <t>Fayzullo Sultonmahmudov</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2850,44 +2852,44 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>AD2635624</t>
+          <t>AD3568677</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>63011066300059</t>
+          <t>50904066920016</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Surxondaryo viloyati</t>
+          <t>Fargona viloyati</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Qumqoʻrgʻon tumani</t>
+          <t>Buvayda tumani</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>998941727977</t>
+          <t>998948224449</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>+998508890637</t>
+          <t>+998940834449</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-06-04</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Xasan Saidmurodov</t>
+          <t>Mubina Davlatova</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2897,7 +2899,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>O'zbek tili</t>
+          <t>Rus tili</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2907,54 +2909,54 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>AD1999493</t>
+          <t>AD4100771</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>52305066180114</t>
+          <t>61407076820023</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Samarqand viloyati</t>
+          <t>Toshkent shahri</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Payariq tumani</t>
+          <t>Mirzo Ulugʻbek tumani</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>998957570177</t>
+          <t>998998182114</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>+998997787117</t>
+          <t>+998880222114</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-06-04</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Abdurxmon Tuychibayev Abdudjabbar o'g'li</t>
+          <t>Monteiro Antoniyeta de Melo</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Bugalteriya hisobi</t>
+          <t>Psixologiya</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>O'zbek tili</t>
+          <t>Rus tili</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2964,12 +2966,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AD7006138</t>
+          <t>AE1153393</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>51409076620044</t>
+          <t>42001900191647</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2979,29 +2981,29 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Yashnaobod tumani</t>
+          <t>Yunusobod tumani</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>998882802529</t>
+          <t>998911925522</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>+998882802529</t>
+          <t>+998911925522</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-06-06</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Rustamxojayev Javohirxoja muzaffarxon ogli</t>
+          <t>Miraliyev Oybek Jorabek ogli</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3021,49 +3023,49 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>AD4246020</t>
+          <t>AD9232334</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>52001076610011</t>
+          <t>50802086030066</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Toshkent shahri</t>
+          <t>Samarqand viloyati</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Olmazor tumani</t>
+          <t>Bulungʻur tumani</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>998974432526</t>
+          <t>998992240807</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>+998974432526</t>
+          <t>+998992240807</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-06-07</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nabiyev Sirojiddin Farohiddin o'g'li</t>
+          <t>Qultorayev Ozodbek Sharifovich</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Yurisprudensiya</t>
+          <t>Psixologiya</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3078,98 +3080,4089 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AD6788338</t>
+          <t>AD7165361</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>50102085150054</t>
+          <t>51908076350044</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Andijon viloyati</t>
+          <t>Surxondaryo viloyati</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Asaka tumani</t>
+          <t>Termiz tumani</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>998507404744</t>
+          <t>998912301326</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>+998914854913</t>
+          <t>+998940690719</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-06-07</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MAMASALIEV SOBIR BAXTIYOROVICH</t>
+          <t>Erkaboy Davletov</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>AD6873832</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>52512077090026</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Xiva shahri</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>998900792999</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>+998900792999</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Hasanov Muhammadamin Odil ogli</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>AD4742507</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>52809076580059</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Sergeli tumani</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>998931086400</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>+998935179949</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Abdulhamidova Nilufar Lochinbekovna</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>AD7170960</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>60102077340024</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>998883083101</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>+998977643101</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Orinboyev Javohir Qodirjon ogli</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Mehnat muhofazasi va texnika xavfsizligi</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>AD2720434</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>50611067310028</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Toʻrtkoʻl tumani</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>998976608183</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>+998975063525</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Qayumov Shuhrat</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>AA8603350</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>51601076330039</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Surxondaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Uzun tumani</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>998952167407</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>+998500030589</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Shokirov Ilhom Azizovich</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Menejment</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>AD8419666</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>52808086610055</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Mirobod tumani</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>998977777015</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>+998330300600</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Azizqulova Farzona Ixtiyorovna</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>AD1348024</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>61707066710052</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Bekobod tumani</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>998945869460</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>+998959895506</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Rahmatov Firdavs Nuriddinovich</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>AD5751714</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>52410075350073</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Uchquduq tumani</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>998945211435</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>+998975002699</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>azizxojayev azamatxoja johongir</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>AD5437559</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>50412076600067</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>998977700125</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>+998977700125</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Halikulova Fazilat</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Psixologiya</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>AD1374668</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>40812793960078</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Yangihayot tumani</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>998990872279</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>+998958547979</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jovliyev Hurshid Sayfullayevich</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Bugalteriya hisobi</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>AD2080844</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>50809075720036</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Yangihayot tumani</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>998950404708</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>+998950404708</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Voxobova Mavjuda Alimbek qizi</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>AD7785950</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>61504085150016</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Andijon viloyati</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Qoʻrgʻontepa tumani</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>998949028708</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>+998949028708</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Imamxujayeva Mohinurbonu Yashnar qizi</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>AD4004323</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>40204986660010</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>998931100149</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>+998931100149</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Maxamadova Malika</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>AD2019284</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>62004066600037</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>998881844356</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>+998773220201</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sharopov Nodirbek Nizomiddinovich</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Bugalteriya hisobi</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>AD9641558</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>51108076620017</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>998942203615</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>+998942203615</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SHOVKAT GANIEV ABDUMAJITOVICH</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>AB9393912</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>32906860190053</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Olmazor tumani</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>998998473529</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>+998998473529</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Iskenderov Muradjon Maxammetovich</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>AE1705531</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>31509923360010</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Ellikqalʼa tumani</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>998995551509</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>+998994551521</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Rakhimova Zarina Nailevna</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Menejment</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>AD5424979</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>61011070005016</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Bektemir tumani</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>998909021552</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>+998908211011</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Suvonov Mirakbar Omonbek o'g'li</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>AD0253773</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>51206046590064</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Surxondaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Angor tumani</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>998932561612</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>+998932561612</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Ismoilov Temurbek Husan ugly</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Bugalteriya hisobi</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>AD4974378</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>51803075450022</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>998909992605</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>+998770308318</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Valiev Husan Abduqodir ogli</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Mehnat muhofazasi va texnika xavfsizligi</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>AD7940394</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>50706086520135</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Yunusobod tumani</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>+998999138519</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>+998331348619</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Tashanov Shavkatjon Davlatniyaz ogili</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>AB2740524</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>31304931810052</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Surxondaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Jarqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>998919696963</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>+998912393932</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Muxsiddin Nizomiddinov</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Inson resurslarini boshqarish</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>AD4521798</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>32706920820014</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Parkent tumani</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>+998935575154</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>+998935575154</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Oqilov Rasuljon Qobil ogli</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>AB2083907</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>32107996560020</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Sergeli tumani</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>+998903361424</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>+998903577448</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>G'aniyeva Madina Azamat qizi</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>AD4245392</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>61505076590024</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>998910150542</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>+998910150542</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Yuldoshova Sabina Qodir qizi</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Inson resurslarini boshqarish</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>AE1540018</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>62707075630038</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>998900006638</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>+998900007892</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Toshmurodova Yulduz</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Psixologiya</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>AD9230526</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>60509075730051</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Yakkabogʻ tumani</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>998976177314</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>+998976177314</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Asilbek Xurshidov Xurshidovich</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>AD4259354</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>52707075740039</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Qarshi tumani</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>998772908777</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>+998772908777</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Shamsiyeva Gullola Sadulla qizi</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>AD9569916</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>40310965590026</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Shahrisabz tumani</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>998906077387</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>+998995804344</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Raxmonaliyev Otabek Adham ogli</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>AE1351006</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>50106076820089</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Chilonzor tumani</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>998983628889</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>+998983628889</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Robiyaxon Ilhomova Ibrohim qizi</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>AD7141168</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>62002086620039</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Qibray tumani</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>998947888299</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>+998947888299</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Ergasheva Mahliyo Bahtiyor qizi</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Ijtimoiy ish</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>AD2833409</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>96402039104200</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Ohangaron tumani</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>998934039102</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>+998944032272</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Erkinov Azizbek</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>AD2134412</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>50301066090035</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Pastdargʻom tumani</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>998949034306</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>+998503024686</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Salieva Shirin Jalgasbayevna</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Psixologiya</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>AD3674484</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>12345678901234</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>998901174034</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>+998946587044</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Temirov Alisher</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>AD9233609</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>50907075470040</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Jizzax viloyati</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Zomin tumani</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>998938230722</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>+998938230722</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Raximova Yulduz Raximovna</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>AD7938578</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>60406086580030</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>998998942547</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>+998998942547</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Normuratov Jamshid Ravshan ogli</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>AD7426180</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>52804085650027</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>998935570147</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>+998931093080</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Makhmudjonov isroil otkir ogli</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Metrologiya va standartlashtirish</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>AD1625206</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>31104966590035</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Yunusobod tumani</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>998946566090</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>+998946053050</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Rozmatova Sarvinoz Saidbek qizi</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>AD2202147</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>62408057000033</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Fargona viloyati</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Oʻzbekiston tumani</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>998974160708</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>+998973340670</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Abduraxmonov Baxrom</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Bugalteriya hisobi</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>AD1504929</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>52806066090101</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Pastdargʻom tumani</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>998889306803</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>+998889306803</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Raximova Dilfuza Rustam qizi</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>AD1432345</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>61505065330037</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Peshku tumani</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>998918286242</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>+998931688081</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Doniyorov Farziddin Nizomiddin o'gli</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>AD9603200</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>52202086540020</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Shayxontohur tumani</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>998331310222</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>+998903710552</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Sayfullayeva Nozima Zafarxoja qizi</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Inson resurslarini boshqarish</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>AD6166398</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>61903075450020</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Sirdaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Yangiyer shahri</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>998912075511</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>+998990667175</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Vaxobov Ibrohim Voxid o'g'li</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>AE2107429</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>31909965840026</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Navoiy shahri</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>998933140333</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>+998933140333</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Rahmonova Ruhshona Fahriddin qizi</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>AD6358075</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>62901075680020</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Kitob tumani</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>998888429809</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>+998887222901</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Xudoyqulov Ozodbek Otabekvich</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>AD2800885</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>51906075830077</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Xatirchi tumani</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>998900883224</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>+998939076466</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Malika Ismailova</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>AE2121000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>61407086520010</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Yunusobod tumani</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>998909306710</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>+998909306710</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Mirzakarim Maxmudov Mirzoxid ogli</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>AD2266244</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>52407066820039</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Zangiota tumani</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>998931200523</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>+998931200523</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Olimov Ulug'bek Nabi o'g'li</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>AB5312010</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>31910925590037</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Shahrisabz tumani</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>998973113457</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>+998972537667</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Abdunabiyev Sarvar Obid o'g'li</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>AD8872723</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>52002076130082</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Urgut tumani</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>998976120022</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>+998976120022</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Xursandov Maxsud Jamshidivich</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>AD7116553</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>51409076130022</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Urgut tumani</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>998888970284</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>+998953123908</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Raximjonov Bekzod Ravshanjon ogli</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>AD2428332</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>52701070005081</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Oʻrta Chirchiq tumani</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>998949044064</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>+998909044064</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Inoqov Mirham</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>AD8188260</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>51503080005027</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Qarshi tumani</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>998931890283</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>+998931890283</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Nazarov Baxtiyor Nazirjonovich</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>AD2342092</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>51301075590020</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Shahrisabz tumani</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>998906660044</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>+998919610010</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Fayziyev Shoxrux Muzaffarovich</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>AD1928316</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>31711965730067</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Chilonzor tumani</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>998906660044</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>+998943247777</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Rustamov Amirbek Doniyorovich</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>AD5137542</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>52108075890063</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Chortoq tumani</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>998943691617</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>+998943691617</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Adumalikova Obida</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>AD9424049</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>61307076700058</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Angren shahri</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>998931134792</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>+998931144792</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Nosirova Madina Mansurovna</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>AD4249272</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>61307076600040</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>998901281355</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>+998908108136</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Murtozaqulov Shaxzod Sheraliyevich</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>AD8584621</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>51105085320026</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Qorakoʻl tumani</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>998943274177</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>+998972920232</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Hasanov Azizbek Lazizbek ogli</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>AD5707273</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>53004077000037</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Fargona viloyati</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Oʻzbekiston tumani</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>998958238800</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>+998958238800</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Shonazarov Shomurod</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
           <t>Hayot faoliyati xavfsizligi</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>AD4731243</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>52809076620010</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>998944990507</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>+998944990507</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Hakimov Orifjon Shuhrat o'g'li</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>AD1365862</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>51805065830045</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Zarafshon shahri</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>+998974409779</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>+998935220273</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Komilov Mirrasil Mirsaid ogli</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Inson resurslarini boshqarish</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>AD7013648</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>52704086600024</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>998909765154</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>+998909457843</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Raxmonova Fotima Komil qizi</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>AB1054452</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>42407921850022</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Chirchiq shahri</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>998931249212</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>+998937903232</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Narimov Dastonbek Ollabergan ogli</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>AD1590394</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>31810997210056</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Xiva tumani</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>998933191474</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>+998333181474</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Botirova Malika Abdulla qizi</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Ijtimoiy ish</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>AD0197288</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>42107996780023</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>998998793339</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>+998998793339</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Djuraeva Angelina Rustamovna</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Psixologiya</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
         <is>
           <t>Rus tili</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Kunduzgi</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>AC2787580</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>52202047970013</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>AD2702933</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>60103076860047</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
         <is>
           <t>Toshkent shahri</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>998880390010</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>+998880390010</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Umida Yuldashova</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>AD8695918</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>60104076520032</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
         <is>
           <t>Yashnaobod tumani</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>998944059922</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>+998880132242</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>2025-05-21</t>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>998940144648</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>+998990770699</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Beshimov Mamatjon O'ktam O'g'li</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>AD7275145</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>53108075260014</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Olot tumani</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>998943272707</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>+998943272707</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Yoqubjonova Asal Alisher qizi</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>AD5225455</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>61510076820044</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Yangiyoʻl tumani</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>998937372485</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>+998937372485</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Malikova Xurshidabonu Kamoliddin qizi</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>AD1645981</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>61307066700037</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Ohangaron tumani</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>998999287724</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>+998932150713</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D66"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -8,7 +8,9 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Лист1'!$D$1:$D$66</definedName>
+  </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -95,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -106,6 +108,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,10 +456,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -475,21 +478,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Mehnat va ijtimoiy munosabatlar akademiyasi 2025-2026 o'quv yiliga xujjat topshirgan abituryentlar ruyhati</t>
         </is>
       </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="5" t="n"/>
-      <c r="F1" s="5" t="n"/>
-      <c r="G1" s="5" t="n"/>
-      <c r="H1" s="5" t="n"/>
-      <c r="I1" s="5" t="n"/>
-      <c r="J1" s="5" t="n"/>
-      <c r="K1" s="5" t="n"/>
+      <c r="B1" s="6" t="n"/>
+      <c r="C1" s="6" t="n"/>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="6" t="n"/>
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
+      <c r="I1" s="6" t="n"/>
+      <c r="J1" s="6" t="n"/>
+      <c r="K1" s="6" t="n"/>
       <c r="L1" s="1" t="n"/>
       <c r="M1" s="1" t="n"/>
     </row>
@@ -553,7 +556,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raxmatov islom Xusan o'g'li</t>
+          <t>Oribjonov Islombek Xusniddin o'g'li</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -568,54 +571,50 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AD5538879</t>
+          <t>AD5879006</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>31408950420035</t>
+          <t>53006075130046</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Toshkent viloyati</t>
+          <t>Andijon viloyati</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Olmaliq shahri</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>998931898188</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>998931898188</t>
-        </is>
+          <t>Jalaquduq tuman</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>998906222398</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>998906222398</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-13</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Oribjonov Islombek Xusniddin o'g'li</t>
+          <t>Eshmuratov Javohir Jahongir o'g'li</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mehnat muhofazasi va texnika xavfsizligi</t>
+          <t>Yurisprudensiya</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -625,74 +624,74 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AD5879006</t>
+          <t>AD1587887</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>53006075130046</t>
+          <t>52605066240019</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Andijon viloyati</t>
+          <t>Surxondaryo viloyati</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Jalaquduq tuman</t>
+          <t>Termiz shahri</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>998335567538</t>
+          <t>998975520026</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>998335567538</t>
+          <t>+998975520026</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-21</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ismoilov Alisher Adxamovich</t>
+          <t>Aydinova Narine Sergeevna</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Menejment</t>
+          <t>Yurisprudensiya</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>O'zbek tili</t>
+          <t>Rus tili</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AD0716061</t>
+          <t>AD6055389</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>51110056750049</t>
+          <t>60402085220078</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -702,34 +701,34 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Yunusobod tumani</t>
+          <t>Mirzo Ulugʻbek tumani</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>998337034905</t>
+          <t>998909340132</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>998337034905</t>
+          <t>+998935617938</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Miryaxyoyev Miralisher Mirxaydar o'g'li</t>
+          <t>Begamov Rozimbek Gavsiddin ogli</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Metrologiya va standartlashtirish</t>
+          <t>Yurisprudensiya</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -739,49 +738,49 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AD7947777</t>
+          <t>AD1886290</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>30605986780015</t>
+          <t>50610055710026</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Toshkent viloyati</t>
+          <t>Qashqadaryo viloyati</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Qibray tumani</t>
+          <t>Mirishkor tumani</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>998937037330</t>
+          <t>998973141455</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>998937037330</t>
+          <t>+998973141455</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-05-08</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>abdullayev muhammad ikrom ogli</t>
+          <t>Shukuraliyeva Nargiza Erbolat qizi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -796,54 +795,54 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AE1233724</t>
+          <t>AD8837258</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>30403915920022</t>
+          <t>62307076620047</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Namangan viloyati</t>
+          <t>Toshkent shahri</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Toʻraqoʻrgʻon tumani</t>
+          <t>Mirzo Ulugʻbek tumani</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>998972312424</t>
+          <t>998940862826</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>998972312424</t>
+          <t>+998993675319</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mahkamov Doniyor Baxtiyer o'g'li</t>
+          <t>Murodova Feruza</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Menejment</t>
+          <t>Psixologiya</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -853,17 +852,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AD2721331</t>
+          <t>AD5867549</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>30601966600067</t>
+          <t>60908076930088</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -878,29 +877,29 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>998933231850</t>
+          <t>998331707506</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>998933231850</t>
+          <t>+998333730181</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-05-08</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Olimov O'ralbek Dilshod o'g'li</t>
+          <t>Xolmatov Sarvar Jamshid o'g'li</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Psixologiya</t>
+          <t>Yurisprudensiya</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -910,54 +909,54 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AC2172151</t>
+          <t>AD4991788</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>50505025830058</t>
+          <t>50704076740068</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Navoiy viloyati</t>
+          <t>Toshkent viloyati</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Xatirchi tumani</t>
+          <t>Yuqori Chirchiq tumani</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>998919862474</t>
+          <t>998992768607</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>998919862474</t>
+          <t>+998997358586</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-05-08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JALILOVA NOZIMA MUXIDDIN QIZI</t>
+          <t>Abdurashidov Sherzodbek Abduvaxid o'g'li</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Inson resurslarini boshqarish</t>
+          <t>Yurisprudensiya</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -967,49 +966,49 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AD1294680</t>
+          <t>AD4439901</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>60103065430073</t>
+          <t>50905065130039</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Jizzax viloyati</t>
+          <t>Andijon viloyati</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Baxmal tumani</t>
+          <t>Jalaquduq tuman</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>+998955259606</t>
+          <t>998902686363</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>+998955259606</t>
+          <t>+998333322203</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-05-10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tillaxodjayev Nurulloxon Axmadullayevich</t>
+          <t>Mirzaqobulov Javohirbek Bahtiyorjon o'g'li</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1024,17 +1023,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AD7314939</t>
+          <t>AD5914844</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>31908861240118</t>
+          <t>30707975150060</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1044,29 +1043,29 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Andijon shahri</t>
+          <t>Qoʻrgʻontepa tumani</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>998902170505</t>
+          <t>998990994708</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>998902170505</t>
+          <t>+998994604708</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-05-11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Eshmuratov Javohir Jahongir o'g'li</t>
+          <t>Raxmatov Ogabek</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1086,49 +1085,49 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AD1587887</t>
+          <t>AD4419590</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>52605066240019</t>
+          <t>50908076150018</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Surxondaryo viloyati</t>
+          <t>Toshkent shahri</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Termiz shahri</t>
+          <t>Yashnaobod tumani</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>998975520026</t>
+          <t>998336373784</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>+998975520026</t>
+          <t>+998931984133</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-05-12</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chinpulotova Ruxsora Bekpulot qizi</t>
+          <t>Boboqulova Bahora Sherzod qizi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ijtimoiy ish</t>
+          <t>Yurisprudensiya</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1138,49 +1137,49 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AE2391801</t>
+          <t>AD6081128</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>41211925360013</t>
+          <t>60803066050143</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Buxoro viloyati</t>
+          <t>Samarqand viloyati</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Shofirkon tumani</t>
+          <t>Ishtixon tumani</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>998935336133</t>
+          <t>998944292086</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>+998941339133</t>
+          <t>+998944292086</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-05-12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Suhrob ismailov Sardorbek ogli</t>
+          <t>Malikova Shoxidaxon Zakirjanovna</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1195,49 +1194,49 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AD5586963</t>
+          <t>AD7703787</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>12345678911111</t>
+          <t>41901891230031</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Xorazm viloyati</t>
+          <t>Andijon viloyati</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Yangibozor tumani</t>
+          <t>Andijon shahri</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>998999669945</t>
+          <t>998999767752</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>+998940668775</t>
+          <t>+998999767752</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-05-13</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Boliqulov Baxtiyor Rahmonqulovich</t>
+          <t>Qudratov Sarvar Raximjon ogli</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1252,49 +1251,49 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AD4094417</t>
+          <t>AD3368539</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>30704785800013</t>
+          <t>50604075670019</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Navoiy viloyati</t>
+          <t>Toshkent shahri</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Nurota tumani</t>
+          <t>Olmazor tumani</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>+998933154384</t>
+          <t>998940473807</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>+998933154384</t>
+          <t>+998330073407</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-05-13</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Oktamov Ulugbek Otkirjon ogli</t>
+          <t>O'roqov Xushnudbek Xurshid o'g'li</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1309,54 +1308,54 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AB3006928</t>
+          <t>AE2454790</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>33011996910037</t>
+          <t>51804076540053</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Fargona viloyati</t>
+          <t>Toshkent shahri</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Bagʻdod tumani</t>
+          <t>Shayxontohur tumani</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>998909480553</t>
+          <t>998999840771</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>+998958081871</t>
+          <t>+998999840771</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-05-14</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Muhamedaliyeva Feruza</t>
+          <t>Iskandarov Sarvarbek Iskandar o'g'li</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Inson resurslarini boshqarish</t>
+          <t>Yurisprudensiya</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1366,49 +1365,49 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AC0466042</t>
+          <t>AD4799601</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>42607966540072</t>
+          <t>52911076170021</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Toshkent shahri</t>
+          <t>Samarqand viloyati</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Yashnaobod tumani</t>
+          <t>Kattaqoʻrgʻon tumani</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>998935193039</t>
+          <t>998944475702</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>+998935193039</t>
+          <t>+998944475702</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-05-14</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Babaniyozova Surayyo Davronbek qizi</t>
+          <t>Numonjonov Zuhriddin Abdulhafiz ogli</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1423,59 +1422,59 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AA9869633</t>
+          <t>AD7653210</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>41702923080033</t>
+          <t>50612077080048</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Toshkent shahri</t>
+          <t>Fargona viloyati</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Yangihayot tumani</t>
+          <t>Margʻilon tumani</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>998958111702</t>
+          <t>998911245111</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>+998958111702</t>
+          <t>+998331590053</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-05-14</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aydinova Narine Sergeevna</t>
+          <t>Muhammadaliyev Jahongir Mahmudjon ogli</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Yurisprudensiya</t>
+          <t>Psixologiya</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Rus tili</t>
+          <t>O'zbek tili</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1485,44 +1484,44 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AD6055389</t>
+          <t>AD5077856</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>60402085220078</t>
+          <t>50709066740028</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Toshkent shahri</t>
+          <t>Toshkent viloyati</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Mirzo Ulugʻbek tumani</t>
+          <t>Yuqori Chirchiq tumani</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>998909340132</t>
+          <t>998333515134</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>+998935617938</t>
+          <t>+998770174575</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-05-14</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Xudoyorov Muslimjon Mominjon ogli</t>
+          <t>Uaboyeva Sarvinoz Yusuf qizi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1537,49 +1536,49 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AD7761080</t>
+          <t>AD2635624</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>31103914340034</t>
+          <t>63011066300059</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Fargona viloyati</t>
+          <t>Surxondaryo viloyati</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Margʻilon tumani</t>
+          <t>Qumqoʻrgʻon tumani</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>998901669999</t>
+          <t>998941727977</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>+998916588000</t>
+          <t>+998508890637</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-15</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Adizov Ismoiljon</t>
+          <t>Xasan Saidmurodov</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1594,49 +1593,49 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AD4325461</t>
+          <t>AD1999493</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>32804881070096</t>
+          <t>52305066180114</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Toshkent shahri</t>
+          <t>Samarqand viloyati</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Mirzo Ulugʻbek tumani</t>
+          <t>Payariq tumani</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>998903490733</t>
+          <t>998957570177</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>+998936578677</t>
+          <t>+998997787117</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-16</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Amirov Akrom</t>
+          <t>Abdurxmon Tuychibayev Abdudjabbar o'g'li</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1656,49 +1655,49 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AA4785236</t>
+          <t>AD7006138</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>12345678901234</t>
+          <t>51409076620044</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Navoiy viloyati</t>
+          <t>Toshkent shahri</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Uchquduq tumani</t>
+          <t>Yashnaobod tumani</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>+998939849910</t>
+          <t>998882802529</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>+998945289910</t>
+          <t>+998882802529</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-16</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Amirov Akrom</t>
+          <t>Rustamxojayev Javohirxoja muzaffarxon ogli</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mehnat muhofazasi va texnika xavfsizligi</t>
+          <t>Yurisprudensiya</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1708,17 +1707,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sirtqi</t>
+          <t>Kunduzgi</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AA1234567</t>
+          <t>AD4246020</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>12345678901234</t>
+          <t>52001076610011</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1733,24 +1732,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>+998939849910</t>
+          <t>998974432526</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>+998945289910</t>
+          <t>+998974432526</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-19</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Amirov Akrom</t>
+          <t>Nabiyev Sirojiddin Farohiddin o'g'li</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1770,54 +1769,54 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AA1234567</t>
+          <t>AD6788338</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>12345678901234</t>
+          <t>50102085150054</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Toshkent viloyati</t>
+          <t>Andijon viloyati</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Olmaliq shahri</t>
+          <t>Asaka tumani</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>+998939849910</t>
+          <t>998507404744</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>+998945289910</t>
+          <t>+998914854913</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-19</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ATAMATOV ABDUXALIL SALAMOVICH</t>
+          <t>MAMASALIEV SOBIR BAXTIYOROVICH</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mehnat muhofazasi va texnika xavfsizligi</t>
+          <t>Hayot faoliyati xavfsizligi</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>O'zbek tili</t>
+          <t>Rus tili</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1827,12 +1826,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AB1234567</t>
+          <t>AC2787580</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>12345678901234</t>
+          <t>52202047970013</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1842,34 +1841,34 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Yakkasaroy tumani</t>
+          <t>Yashnaobod tumani</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>+12676860109</t>
+          <t>998944059922</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>+998945289910</t>
+          <t>+998880132242</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-21</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ATAMATOV ABDUXALIL SALAMOVICH</t>
+          <t>Samandarova Sevara Sardor qizi</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mehnat muhofazasi va texnika xavfsizligi</t>
+          <t>Yurisprudensiya</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1884,98 +1883,5573 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AB1234567</t>
+          <t>AC0287736</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>12345678901234</t>
+          <t>60809027150015</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Toshkent shahri</t>
+          <t>Qoraqalpogʻiston Respublikasi</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Yakkasaroy tumani</t>
+          <t>Nukus shahri</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>+12676860109</t>
+          <t>998882017682</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>+998945289910</t>
+          <t>+998882017682</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-23</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Amirov Akrom Eshali ogli</t>
+          <t>Samatov Abdusamat Abdusattor ogli</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>AD3980911</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>51708076720045</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Boʻstonliq tumani</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>998932159764</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>+998900249764</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Qurbonov Begzod</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Menejment</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>AD0847437</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>50709058660037</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>998900384886</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>+998334602323</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Madrahimov Nodirbek Maxmudovich</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>AD0733769</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>51904057190023</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Yangibozor tumani</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>998940668775</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>+998940668775</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tuxtayev Abbos Eshpulat ugli</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Bugalteriya hisobi</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>AD4790831</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>51505075630124</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Qamashi tumani</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>998773909747</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>+998996692968</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Yusupjanov Javohir Sharifjon o'g'li</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Bugalteriya hisobi</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>AD3666113</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>50201075980054</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Qibray tumani</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>998959660704</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>+998950388080</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Oripov Ilyosbek Ilhomjon o'g'li</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>AD0231077</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>51002056940011</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Fargona viloyati</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Qo‘qon shahri</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>+998971002994</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>+998971002994</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tursunbayev Inomjon</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>AD5089123</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>50211076360030</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Sirdaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Sirdaryo tumani</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>998938321107</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>+998938321107</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Ibraimov Azizbek Alisherovich</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>AD3945152</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>50603077340056</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Nukus shahri</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>998942689525</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>+998943830603</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Fayziyeva Sevinchbonu Jasur qizi</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>AD2031410</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>60310056130045</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Samarqand shahri</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>998915451747</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>+998973961120</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mahmudov Faxriddin Asomiddin ogli</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Bugalteriya hisobi</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>AD0641780</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>31801931771247</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>998974000350</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>+998958681883</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Nabiyev Mexroj</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Menejment</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>AD7998935</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>52403070005091</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Surxondaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Termiz shahri</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>998932471114</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>+998932471114</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Avezova Malika</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Inson resurslarini boshqarish</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>AD3650780</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>61804077050048</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>998949449446</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>+998931577751</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sanjar Elmurodov Abdusamat o'g'li</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>AE2766401</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>52502076170030</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>998505257371</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>+998904497775</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Rajabova Inobat Kazakovna</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Inson resurslarini boshqarish</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>AD0738169</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>42502873140048</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Yunusobod tumani</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>998997688774</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>+998997688774</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sharipov Shaxriyor</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>AD2257039</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>52410066180061</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Samarqand shahri</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>998990986842</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>+998915277471</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Fayzullayeva Madinabonu Farhod qizi</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>AD3993175</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>60407076600062</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Qibray tumani</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>998997048361</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>+998997048361</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Fayzullo Sultonmahmudov</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>AD3568677</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>50904066920016</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Fargona viloyati</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Buvayda tumani</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>998948224449</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>+998940834449</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mubina Davlatova</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>AD4100771</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>61407076820023</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>998998182114</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>+998880222114</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Monteiro Antoniyeta de Melo</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Psixologiya</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>AE1153393</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>42001900191647</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Yunusobod tumani</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>998911925522</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>+998911925522</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Miraliyev Oybek Jorabek ogli</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>AD9232334</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>50802086030066</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Bulungʻur tumani</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>998992240807</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>+998992240807</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Qultorayev Ozodbek Sharifovich</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Psixologiya</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>AD7165361</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>51908076350044</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Surxondaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Termiz tumani</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>998912301326</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>+998940690719</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Erkaboy Davletov</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>AD6873832</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>52512077090026</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Xiva shahri</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>998900792999</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>+998900792999</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Hasanov Muhammadamin Odil ogli</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>AD4742507</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>52809076580059</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Sergeli tumani</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>998931086400</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>+998935179949</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Abdulhamidova Nilufar Lochinbekovna</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>AD7170960</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>60102077340024</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>998883083101</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>+998977643101</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Orinboyev Javohir Qodirjon ogli</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Mehnat muhofazasi va texnika xavfsizligi</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>AD2720434</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>50611067310028</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Toʻrtkoʻl tumani</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>998976608183</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>+998975063525</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Qayumov Shuhrat</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>AA8603350</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>51601076330039</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Surxondaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Uzun tumani</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>998952167407</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>+998500030589</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Shokirov Ilhom Azizovich</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Menejment</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>AD8419666</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>52808086610055</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Mirobod tumani</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>998977777015</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>+998330300600</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Azizqulova Farzona Ixtiyorovna</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>AD1348024</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>61707066710052</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Bekobod tumani</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>998945869460</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>+998959895506</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Rahmatov Firdavs Nuriddinovich</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>AD5751714</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>52410075350073</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Uchquduq tumani</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>998945211435</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>+998975002699</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>azizxojayev azamatxoja johongir</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>AD5437559</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>50412076600067</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>998977700125</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>+998977700125</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Halikulova Fazilat</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Psixologiya</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>AD1374668</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>40812793960078</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Yangihayot tumani</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>998990872279</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>+998958547979</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jovliyev Hurshid Sayfullayevich</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Bugalteriya hisobi</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>AD2080844</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>50809075720036</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Yangihayot tumani</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>998950404708</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>+998950404708</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Voxobova Mavjuda Alimbek qizi</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>AD7785950</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>61504085150016</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Andijon viloyati</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Qoʻrgʻontepa tumani</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>998949028708</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>+998949028708</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Imamxujayeva Mohinurbonu Yashnar qizi</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>AD4004323</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>40204986660010</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>998931100149</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>+998931100149</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Maxamadova Malika</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>AD2019284</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>62004066600037</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>998881844356</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>+998773220201</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sharopov Nodirbek Nizomiddinovich</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Bugalteriya hisobi</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>AD9641558</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>51108076620017</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>998942203615</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>+998942203615</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SHOVKAT GANIEV ABDUMAJITOVICH</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>AB9393912</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>32906860190053</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Olmazor tumani</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>998998473529</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>+998998473529</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Iskenderov Muradjon Maxammetovich</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>AE1705531</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>31509923360010</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Ellikqalʼa tumani</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>998995551509</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>+998994551521</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Rakhimova Zarina Nailevna</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Menejment</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>AD5424979</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>61011070005016</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Bektemir tumani</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>998909021552</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>+998908211011</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Suvonov Mirakbar Omonbek o'g'li</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>AD0253773</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>51206046590064</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Surxondaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Angor tumani</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>998932561612</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>+998932561612</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Ismoilov Temurbek Husan ugly</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Bugalteriya hisobi</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>AD4974378</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>51803075450022</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>998909992605</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>+998770308318</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Valiev Husan Abduqodir ogli</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Mehnat muhofazasi va texnika xavfsizligi</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>AD7940394</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>50706086520135</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Yunusobod tumani</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>+998999138519</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>+998331348619</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Tashanov Shavkatjon Davlatniyaz ogili</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>AB2740524</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>31304931810052</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Surxondaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Jarqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>998919696963</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>+998912393932</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Muxsiddin Nizomiddinov</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Inson resurslarini boshqarish</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>AD4521798</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>32706920820014</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Parkent tumani</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>+998935575154</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>+998935575154</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Oqilov Rasuljon Qobil ogli</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>AB2083907</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>32107996560020</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Sergeli tumani</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>+998903361424</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>+998903577448</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>G'aniyeva Madina Azamat qizi</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>AD4245392</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>61505076590024</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>998910150542</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>+998910150542</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Yuldoshova Sabina Qodir qizi</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Inson resurslarini boshqarish</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>AE1540018</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>62707075630038</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>998900006638</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>+998900007892</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Toshmurodova Yulduz</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Psixologiya</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>AD9230526</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>60509075730051</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Yakkabogʻ tumani</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>998976177314</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>+998976177314</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Asilbek Xurshidov Xurshidovich</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>AD4259354</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>52707075740039</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Qarshi tumani</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>998772908777</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>+998772908777</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Shamsiyeva Gullola Sadulla qizi</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>AD9569916</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>40310965590026</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Shahrisabz tumani</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>998906077387</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>+998995804344</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Raxmonaliyev Otabek Adham ogli</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>AE1351006</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>50106076820089</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Chilonzor tumani</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>998983628889</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>+998983628889</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Robiyaxon Ilhomova Ibrohim qizi</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>AD7141168</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>62002086620039</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Qibray tumani</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>998947888299</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>+998947888299</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Ergasheva Mahliyo Bahtiyor qizi</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Ijtimoiy ish</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>AD2833409</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>96402039104200</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Ohangaron tumani</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>998934039102</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>+998944032272</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Erkinov Azizbek</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>AD2134412</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>50301066090035</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Pastdargʻom tumani</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>998949034306</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>+998503024686</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Salieva Shirin Jalgasbayevna</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Psixologiya</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>AD3674484</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>12345678901234</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>998901174034</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>+998946587044</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Temirov Alisher</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>AD9233609</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>50907075470040</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Jizzax viloyati</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Zomin tumani</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>998938230722</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>+998938230722</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Raximova Yulduz Raximovna</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>AD7938578</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>60406086580030</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>998998942547</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>+998998942547</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Normuratov Jamshid Ravshan ogli</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>AD7426180</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>52804085650027</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>998935570147</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>+998931093080</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Makhmudjonov isroil otkir ogli</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Metrologiya va standartlashtirish</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>AD1625206</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>31104966590035</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Yunusobod tumani</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>998946566090</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>+998946053050</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Rozmatova Sarvinoz Saidbek qizi</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>AD2202147</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>62408057000033</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Fargona viloyati</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Oʻzbekiston tumani</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>998974160708</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>+998973340670</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Abduraxmonov Baxrom</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Bugalteriya hisobi</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>AD1504929</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>52806066090101</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Pastdargʻom tumani</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>998889306803</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>+998889306803</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Raximova Dilfuza Rustam qizi</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>AD1432345</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>61505065330037</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Peshku tumani</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>998918286242</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>+998931688081</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Doniyorov Farziddin Nizomiddin o'gli</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>AD9603200</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>52202086540020</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Shayxontohur tumani</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>998331310222</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>+998903710552</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Sayfullayeva Nozima Zafarxoja qizi</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Inson resurslarini boshqarish</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>AD6166398</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>61903075450020</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Sirdaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Yangiyer shahri</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>998912075511</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>+998990667175</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Vaxobov Ibrohim Voxid o'g'li</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>AE2107429</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>31909965840026</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Navoiy shahri</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>998933140333</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>+998933140333</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Rahmonova Ruhshona Fahriddin qizi</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>AD6358075</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>62901075680020</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Kitob tumani</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>998888429809</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>+998887222901</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Xudoyqulov Ozodbek Otabekvich</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>AD2800885</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>51906075830077</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Xatirchi tumani</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>998900883224</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>+998939076466</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Malika Ismailova</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>AE2121000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>61407086520010</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Yunusobod tumani</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>998909306710</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>+998909306710</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Mirzakarim Maxmudov Mirzoxid ogli</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>AD2266244</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>52407066820039</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Zangiota tumani</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>998931200523</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>+998931200523</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Olimov Ulug'bek Nabi o'g'li</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>AB5312010</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>31910925590037</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Shahrisabz tumani</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>998973113457</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>+998972537667</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Abdunabiyev Sarvar Obid o'g'li</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>AD8872723</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>52002076130082</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Urgut tumani</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>998976120022</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>+998976120022</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Xursandov Maxsud Jamshidivich</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>AD7116553</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>51409076130022</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Urgut tumani</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>998888970284</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>+998953123908</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Raximjonov Bekzod Ravshanjon ogli</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>AD2428332</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>52701070005081</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Oʻrta Chirchiq tumani</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>998949044064</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>+998909044064</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Inoqov Mirham</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>AD8188260</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>51503080005027</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Qarshi tumani</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>998931890283</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>+998931890283</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Nazarov Baxtiyor Nazirjonovich</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>AD2342092</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>51301075590020</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Shahrisabz tumani</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>998906660044</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>+998919610010</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Fayziyev Shoxrux Muzaffarovich</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>AD1928316</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>31711965730067</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Chilonzor tumani</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>998906660044</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>+998943247777</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Rustamov Amirbek Doniyorovich</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>AD5137542</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>52108075890063</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Chortoq tumani</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>998943691617</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>+998943691617</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Adumalikova Obida</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>AD9424049</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>61307076700058</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Angren shahri</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>998931134792</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>+998931144792</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Nosirova Madina Mansurovna</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>AD4249272</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>61307076600040</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>998901281355</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>+998908108136</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Murtozaqulov Shaxzod Sheraliyevich</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>AD8584621</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>51105085320026</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Qorakoʻl tumani</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>998943274177</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>+998972920232</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Hasanov Azizbek Lazizbek ogli</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>AD5707273</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>53004077000037</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Fargona viloyati</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Oʻzbekiston tumani</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>998958238800</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>+998958238800</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Shonazarov Shomurod</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
           <t>Hayot faoliyati xavfsizligi</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>O'zbek tili</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Kunduzgi</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>AB5554414</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>12345678901234</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>AD4731243</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>52809076620010</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>998944990507</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>+998944990507</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Hakimov Orifjon Shuhrat o'g'li</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>AD1365862</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>51805065830045</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Zarafshon shahri</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>+998974409779</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>+998935220273</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Komilov Mirrasil Mirsaid ogli</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Inson resurslarini boshqarish</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>AD7013648</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>52704086600024</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>998909765154</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>+998909457843</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Raxmonova Fotima Komil qizi</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>AB1054452</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>42407921850022</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Chirchiq shahri</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>998931249212</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>+998937903232</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Narimov Dastonbek Ollabergan ogli</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>AD1590394</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>31810997210056</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
         <is>
           <t>Xorazm viloyati</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Urganch shahri</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>+12676860109</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>+998945289910</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Xiva tumani</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>998933191474</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>+998333181474</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>2025-06-25</t>
         </is>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Botirova Malika Abdulla qizi</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Ijtimoiy ish</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>AD0197288</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>42107996780023</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>998998793339</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>+998998793339</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Djuraeva Angelina Rustamovna</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Psixologiya</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>AD2702933</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>60103076860047</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>998880390010</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>+998880390010</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Umida Yuldashova</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>AD8695918</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>60104076520032</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>998940144648</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>+998990770699</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Beshimov Mamatjon O'ktam O'g'li</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>AD7275145</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>53108075260014</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Olot tumani</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>998943272707</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>+998943272707</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Yoqubjonova Asal Alisher qizi</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>AD5225455</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>61510076820044</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Yangiyoʻl tumani</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>998937372485</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>+998937372485</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Malikova Xurshidabonu Kamoliddin qizi</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>AD1645981</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>61307066700037</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Ohangaron tumani</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>998999287724</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>+998932150713</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Bozorova Marjona</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>AB5447686</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>60110005800010</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Navoiy shahri</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>998997394174</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>+998997394174</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Serikbaev Islom Ergalievich</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Bugalteriya hisobi</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>AD9340470</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>51511076620055</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>998974709898</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>+998977065454</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Abdujabborova Sevara Abdujalil qiz</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Mehnat muhofazasi va texnika xavfsizligi</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>AD9984881</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>62608086620040</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Qibray tumani</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>998947060816</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>+998507032614</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Abduvalieva 
+Gulnoza 
+Baxtiyor kizi</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Bugalteriya hisobi</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>AD5066871</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>60205076620037</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Qibray tumani</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>998880848228</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>+998774554707</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Nosirxonova Munira</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Bugalteriya hisobi</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>AD8852961</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>60901046700021</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Ohangaron tumani</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>998939983122</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>+998939983122</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="D1:D66"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
       <selection activeCell="E108" sqref="E108"/>
@@ -7448,6 +7448,234 @@
         </is>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Murodullayev Asliddinjon Xurshidovich</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>AD4081875</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>51705075820037</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Karmana tumani</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>998958222222</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>+998958222222</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Azizbek Isroilov Xusniddinovich</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>AD6928826</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>50201086580012</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Uchtepa tumani</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>998909658251</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>+998909658251</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>2025-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>orifjonov dilshod</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>AD1569162</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>50509076920045</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Fargona viloyati</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Qo‘qon shahri</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>998911398039</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>+998911398039</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>2025-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Xomidjonova Tamannoxon Axtamjon qizi</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>AD5616436</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>62305077010104</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Fargona viloyati</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Fargʻona tumani</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>998887602305</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>+998507142104</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>2025-06-28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D66"/>
   <mergeCells count="1">

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
       <selection activeCell="E108" sqref="E108"/>
@@ -7676,6 +7676,747 @@
         </is>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>FARMONOVA ZARINA</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Psixologiya</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>AD5184165</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>60109076960015</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>998911623523</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>+998918102334</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Eshmuratov Jaloliddin Tohir o'g'li</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>AD0610768</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>50909045470038</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Jizzax viloyati</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Zomin tumani</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>998949474230</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>+998957600076</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Halilov Abdurauf</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>AD3879501</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>32703922200035</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Angren shahri</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>998937355565</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>+998937355565</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Oktamova ruhshona</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>AD6121348</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>60810067170055</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Shovot tumani</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>998939140812</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>+998943106633</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Bu qaysi harf</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>AD2755823</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>32904931690024</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Jizzax viloyati</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Yangiobod tumani</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>998955779302</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>+998955779302</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Kim Yuriy</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Mehnat muhofazasi va texnika xavfsizligi</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>AD3569381</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>32008781930014</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>+998977337388</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>+998977337388</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Boratov Vohidjon Erkinboy o'g'li</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>AD4095733</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>30302924280027</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Fargona viloyati</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Dangʻara tumani</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>+998905868787</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>+998500117747</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Rajabova Iroda Obid qizi</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>AD3282682</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>62608076060115</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Kattaqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>998940149199</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>+998947535885</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Nishonva Dildora Ziyodulla qizi</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>AC2650600</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>41606956420012</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Sirdaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Sardoba tumani</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>998979061122</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>+998979061122</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Toshpulatov Jamshid Xodjiakbar o'g'li</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>AD3351907</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>31104920270760</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>998935477271</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>+998935477271</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Maqsudov Nurmuhammad shavkatjon ogli</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>AD6260332</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>51908065330644</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Peshku tumani</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>998953540772</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>+998996846250</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Zakiryayeva Shirin Nurillayevna</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>AD1874714</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>41310826180015</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Samarqand shahri</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>998979244447</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>+998979244447</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Ochilova Ruxshona Abdurashidovna</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>AD3963854</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>61403076150025</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Toyloq tumani</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>998507147607</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>+998507147607</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D66"/>
   <mergeCells count="1">

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
       <selection activeCell="E108" sqref="E108"/>
@@ -8417,6 +8417,291 @@
         </is>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Azamov Aziz</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Hayot faoliyati xavfsizligi</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>AD5352798</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>52810076230020</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Surxondaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Denov tumani</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>998938239646</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>+998938239646</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>XASANOVA SEVINCHXON AXRORBEK QIZI</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>AC2540058</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>60810036940010</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Yangihayot tumani</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>998944941008</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>+998944941008</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Sayfiddinova Maqsad Sherzodovna</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>AD5715114</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>60910076150056</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Toyloq tumani</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>998948370910</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>+998993507867</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Bekmurodov Sardor Shuhratovich</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>AD9500428</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>51608076270020</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Surxondaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Termiz shahri</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>998996212007</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>+998942003007</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Po'latov Fayzulloh Kamoliddin o'g'li</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Menejment</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>AD8066834</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>51607086540127</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Shayxontohur tumani</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>998994778754</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>+998949928754</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D66"/>
   <mergeCells count="1">

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -456,10 +456,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -7907,7 +7907,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Bu qaysi harf</t>
+          <t>IRSALIYEV TO‘YCHIBOY OTAKUZI O‘G‘LI</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -8699,6 +8699,348 @@
       <c r="K145" t="inlineStr">
         <is>
           <t>2025-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Sa'dinov Husen Islomovich</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>AD1956155</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>52005056150012</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Toyloq tumani</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>998992949844</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>+998990488733</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Begmatov Hojiakbar Ulugbek ogli</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>AD7482039</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>51912076580039</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>998906610323</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>+998906610323</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Xushboqov Bunyod Toxirovich</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>AD6046888</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>51202076350025</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Surxondaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Termiz shahri</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>998994261253</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>+998997161253</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Mavleeva Elsana Timurovna</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Psixologiya</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>AD5687911</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>60301088660013</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>998974321132</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>+998974321132</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Shokirova Dilafruz Eminjon qizi</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>AD3230069</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>61003076620056</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>998900668474</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>+998331668474</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Tojiddinova Muzayyam</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>AD6092423</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>60702085140012</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>998930639601</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>+998938390207</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
         </is>
       </c>
     </row>

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
       <selection activeCell="A132" sqref="A132"/>
@@ -9044,6 +9044,234 @@
         </is>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Fayzullayev Fatxullo</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>AE1624128</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>52008075500011</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>998885223533</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>+998338390777</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Joraqulov Bahodir</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>AD6150839</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>50608075780064</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Navbahor tumani</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>998774774313</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>+998774774313</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Berdiyev Jo'rabek</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>AB6139569</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>50107005800024</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Jizzax viloyati</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Sharof Rashidov tumani</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>998992428774</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>+998992428774</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Shorustamova Sabina Shoakbar qizi</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>AD5424978</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>62209076510013</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Bektemir tumani</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>998999290005</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>+998999290005</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D66"/>
   <mergeCells count="1">

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
       <selection activeCell="A132" sqref="A132"/>
@@ -9272,6 +9272,120 @@
         </is>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Zafar Jorayev</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>AC2181988</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>51708025590020</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Yakkasaroy tumani</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>+998930711770</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>+998930711770</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Qodirov Abduma'ruf Mahmudovich</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>AD4569027</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>50309076530015</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Mirobod tumani</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>998991882270</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>+998991882270</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D66"/>
   <mergeCells count="1">

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
       <selection activeCell="A132" sqref="A132"/>
@@ -9386,6 +9386,63 @@
         </is>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Zaitova Zulfiya Ruslanovna</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Psixologiya</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>AD5768930</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>61001086580034</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Bektemir tumani</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>998901155656</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>+998901155656</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D66"/>
   <mergeCells count="1">

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
       <selection activeCell="A132" sqref="A132"/>
@@ -9443,6 +9443,63 @@
         </is>
       </c>
     </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Qaxxarjonov Muhammadkarim Qaxxarjon ogli</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Bugalteriya hisobi</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>AD2505187</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>52801076620023</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Qibray tumani</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>998777275792</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>+998777275792</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D66"/>
   <mergeCells count="1">

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M159"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
       <selection activeCell="A132" sqref="A132"/>
@@ -9500,6 +9500,63 @@
         </is>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>G'aybullayev Turabek Ulug'bek o'g'li</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>AE1136010</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>51008075510046</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Shayxontohur tumani</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>998930931308</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>+998930931308</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D66"/>
   <mergeCells count="1">

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M160"/>
+  <dimension ref="A1:M180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
       <selection activeCell="A132" sqref="A132"/>
@@ -9557,6 +9557,1146 @@
         </is>
       </c>
     </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Saydaliyev Saidamir Mamarasul ogli</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>AE1264345</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>51010076540029</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>998998618080</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>+998998618080</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>2025-07-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Toshmurodova Shaxrizoda Baxrillo qizi</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>AD2567321</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>60102076100021</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Paxtachi tumani</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>998977983797</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>+998931856686</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>2025-07-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Temirqulov Fazliddin</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>AD9509758</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>51105076330050</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Sergeli tumani</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>998773376507</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>+998773376507</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Salamova Zarnigor Ibroximovna</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>AD3649699</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>61105076150028</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Toyloq tumani</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>998935195107</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>+998906050711</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Uzoqov Sohibjon Muhiddinovich</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>AD5004957</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>30909915590020</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>998330100909</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>+998908980909</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Uzoqova Shaxzodaxon Rasulovna</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>AD2834359</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>60506048660029</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>998330100909</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>+998909200096</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Sotiboldiyev Farrux Umidjonovich</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>AE1111111</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>52902085320011</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Qorovulbozor tumani</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>998931414985</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>+998931414985</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Uzoqov Sohibjon Muhiddinovich</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>AD5004957</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>30909915590020</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>998908980909</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>+998909200096</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Elbek Maxmadaminov</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Ijtimoiy ish</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>AD4968227</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>51505075740083</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>998935072744</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>+998935072744</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Salaydinov Ro'ziboy Mustafaqul o'g'li</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Ijtimoiy ish</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>AD3629962</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>32412985430023</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>998770576887</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>+998770576887</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Allaqulova Marjona Mamedovna</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>AD7442589</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>77777777777777</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Chilonzor tumani</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>998976977284</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>+998976977284</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Oblanazarov Mirzoulugbek</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Ijtimoiy ish</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>AD2509148</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>50501075530010</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Sirdaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Yangiyer shahri</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>998945415755</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>+998998984604</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Berdiyeva rayxona</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Inson resurslarini boshqarish</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>AD7502322</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>60308076230078</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>998943644114</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>+998940862826</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Iklasova Dilaram Kuatovna</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>AD8681096</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>62606087360042</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>998913930806</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>+998919272512</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Xidirov Bahrom Oblanazarovich</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Ijtimoiy ish</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>AD3445090</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>30406885530015</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Sirdaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Yangiyer shahri</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>998932980640</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>+998958858188</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Qurbonov Javohir Husniddinovich</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>AD4446435</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>31004951170027</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Gʻijduvon tumani</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>998994616970</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>+998931227601</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Xidirov Bahrom Oblanazarovich</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Ijtimoiy ish</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>AD3445009</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>30406885530015</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Sirdaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Yangiyer shahri</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>998932980640</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>+998958858188</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Xidirov Bahrom</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Ijtimoiy ish</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>AD4534009</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>30406885530015</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Sirdaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Yangiyer shahri</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>998932980640</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>+998958858188</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Dunayev Umrbek Sherzod ogli</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>AD9339288</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>52304077130046</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Urganch tumani</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>998957115151</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>+998954551636</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Axmedov Mirjamol Yaxyoevich</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Bugalteriya hisobi</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>AB1844429</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>30702840020035</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Uchtepa tumani</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>998998660600</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>+998998660600</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D66"/>
   <mergeCells count="1">

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M178"/>
+  <dimension ref="A1:M184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A165" sqref="A165:XFD165"/>
@@ -10583,6 +10583,348 @@
         </is>
       </c>
     </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Fayziboyeva Zilola Iskandarovna</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>AD5163644</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>61511076600058</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>998909887009</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>+998977161284</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Tursunov Farrux Otabrkovich</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>AD5088009</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>52004075320011</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Qorovulbozor tumani</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>998974871757</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>+998936734500</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Nizomov Islomxon G'ulom o'g'li</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>AE2147662</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>77777777777777</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Fargona viloyati</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Qo‘qon shahri</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>998916886269</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>+998916886269</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Tolibjonov Sardor Alisherovich</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>AD1130820</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>51602065850024</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Zarafshon shahri</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>998933171756</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>+998933171756</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Ergashboyev Ulugbek</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>AD1833652</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>52909066600027</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Yunusobod tumani</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>998990519054</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>+998998969054</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Mamatov Doniyor Ahmadjonovich</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>AD1934575</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>32712882940011</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Uchtepa tumani</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>998974289009</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>+998974289009</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D66"/>
   <mergeCells count="1">

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M184"/>
+  <dimension ref="A1:M186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A165" sqref="A165:XFD165"/>
@@ -10925,6 +10925,120 @@
         </is>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Karimova Muslima Kamil qizi</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Menejment</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>AD4136261</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>62705077360012</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>998913747828</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>+998919272512</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Shodmonov Sardor</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Hayot faoliyati xavfsizligi</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>AD9492149</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>51401086600113</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>998930970820</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>+998930970820</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D66"/>
   <mergeCells count="1">

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M186"/>
+  <dimension ref="A1:M192"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A165" sqref="A165:XFD165"/>
@@ -11039,6 +11039,348 @@
         </is>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Baxtiyorov Abdulboriy  Baxrom o'g'li</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>AD5552063</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>50612076540028</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Shayxontohur tumani</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>998974047888</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>+998950500778</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Husanova Nozima Shokir Qizi</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Inson resurslarini boshqarish</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>AE2838288</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>40409923980013</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Nurobod tumani</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>998938792997</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>+998949381690</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Sheralieva Madina Nuralievna</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>AE1846105</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>61612078660029</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Bektemir tumani</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>998881887967</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>+998970647478</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Nurbek Madraimov</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>AD6081351</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>52611076520034</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>998974031380</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>+998974031380</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Tulyaganov Jafarbek Kozimbek Ogli</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Ijtimoiy ish</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>AD7166340</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>51404086580054</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>998901110800</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>+998901110800</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>2025-07-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>toxtabayeva ruxsora zafar qizi</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>AD4895079</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>60209076790015</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Toshkent viloyati</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Piskent tumani</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>998955555207</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>+998955555207</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D66"/>
   <mergeCells count="1">

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A165" sqref="A165:XFD165"/>
@@ -11381,6 +11381,63 @@
         </is>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Jurakulov Alanur Anvarovich</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>AD9626026</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>50112076150040</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Toyloq tumani</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>998948370910</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>+998948370910</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D66"/>
   <mergeCells count="1">

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M193"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A165" sqref="A165:XFD165"/>
@@ -11438,6 +11438,348 @@
         </is>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Ibragimova Madina Iskandarovna</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>AD6450355</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>60706085260040</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Buxoro tumani</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>998998466696</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>+998770833110</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Ibragimova Madina Iskandarovna</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>AD9559203</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>60706085260040</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Buxoro tumani</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>998998466696</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>+998770833110</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Sultonov Ogabek</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>AD8430080</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>51409075540068</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Jizzax viloyati</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Jizzax shahri</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>998973250585</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>+998976457717</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Abduganiyev Asadbek</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Hayot faoliyati xavfsizligi</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>AD7448968</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>50212076580022</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>998952567674</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>+998952567674</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Quramboyev Doston</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>AD1491874</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>50310057110047</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Gurlan tumani</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>998882032203</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>+998200071691</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Hasanov Sherali Nurali o'g'li</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>AB6269663</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>51411006050012</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Ishtixon tumani</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>998885771060</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>+998885771060</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D66"/>
   <mergeCells count="1">

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:M202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A165" sqref="A165:XFD165"/>
@@ -11780,6 +11780,177 @@
         </is>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Nurmatova Rayxon Toxir qizi</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Mehnat muhofazasi va texnika xavfsizligi</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>AD1289454</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>62203066600043</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>998947763216</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>+998333906090</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Yuldashev Doston Hamza o'g'li</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Mehnat muhofazasi va texnika xavfsizligi</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>AB5180281</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>52509006600014</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>998997227826</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>+998976010571</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Ziyatov Ahror Ikrom ug'li</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Psixologiya</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>AD8979548</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>53006076230033</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Surxondaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Denov tumani</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>998200142003</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>+998200142003</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D66"/>
   <mergeCells count="1">

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M202"/>
+  <dimension ref="A1:M224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A165" sqref="A165:XFD165"/>
@@ -11951,6 +11951,1260 @@
         </is>
       </c>
     </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Rasuljonov Fazliddin</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Bugalteriya hisobi</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>AD2481404</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>50401076530012</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Mirobod tumani</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>998942433422</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>+998942433422</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Bazarbayev Samir Quanishbay o'g'li</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>AD6256423</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>50611077350054</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Qoraqalpogʻiston Respublikasi</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Beruniy tumani</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>998997295701</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>+998997295701</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Avaznazarov Diyorbek</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>AD3275498</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>52910065710015</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Mirishkor tumani</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>998908784346</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>+998950297101</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Abdusattorova Shahloxon</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>AD0332937</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>62808046940058</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Fargona viloyati</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Quva tumani</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>998955805054</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>+998916655156</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Xasanboyeva Marjona Asatilla qizi</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Hayot faoliyati xavfsizligi</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>AD6725608</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>62702086580013</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>998993019919</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>+998933519919</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Sunnatboyev Asilbek Lutfulloyevich</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>AD6172894</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>51102058540026</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Navoiy viloyati</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Navoiy shahri</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>998930022274</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>+998931512274</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Rahmonov Humoyun Xayitmurodovich</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>AB2339324</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>30808985700024</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Kasbi tumani</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>998882090096</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>+998881113261</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Sobirjonov Saidjon Obidjon o'g'li</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>AC2641623</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>51101045950016</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Yangiqoʻrgʻon tumani</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>998933772113</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>+998772341110</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Jasmin Batirova</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>AD4597593</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>61802077190089</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Yunusobod tumani</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>998886872777</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>+998886872777</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Maxmadmurodov Karim Orifjon ogli</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Ijtimoiy ish</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>AD3677109</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>50203076580028</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>998997668641</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>+998997668699</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Shohjahon Botirov</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>AD6006127</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>51107087140013</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Yunusobod tumani</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>998950261107</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>+998909451411</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Adashboyeva Fotima Qodirali qizi</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>AD1220503</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>62508005990011</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Namangan viloyati</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Mingbuloq tumani</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>79126723290</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>+998333031325</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Dilshodova Jasmina Dilshodovna</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>AD2836503</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>61709066500066</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Uchtepa tumani</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>998773788878</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>+998333704271</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Murodova Orzigul Xolmumin qizi</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>AD4184431</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>62207076080059</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Chilonzor tumani</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>998931312207</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>+998931312207</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Shamsiddin Bahodirov Anvar ogli</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>AD1709792</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>52201056430028</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Sirdaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Mirzaobod tumani</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>998994602082</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>+998990372230</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Abdiyev Bunyod</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>AD8597324</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>50604086450020</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Sirdaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Guliston tumani</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>998999090257</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>+998911010257</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Xusanboyev Murodbek Sherbek o'g'li</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>AD9591406</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>52709075530012</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Jizzax viloyati</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Yangiobod tumani</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>+998996603300</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>+998995760701</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Rasulova Sevinch Kamoliddin qizi</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>AD3631826</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>61206075530012</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Jizzax viloyati</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Yangiobod tumani</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>998972011207</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>+998972011207</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Murodov Firdavs Ozodbek ogli</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>AD2765996</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>50907065530015</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Jizzax viloyati</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Yangiobod tumani</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>998904020066</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>+998904020066</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Botirova Gulmira Quvondiq qizi</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>AB4552654</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>61702007100017</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Bogʻot tumani</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>998942331799</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>+998932890124</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Amriyeva Nozima</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>AD8022695</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>61807076110030</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Samarqand shahri</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>998939671807</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>+998939671807</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Latipov Akmal Akobirovich</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>AD0713461</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>32808871110038</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Jondor tumani</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>+998993103666</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>+998993103666</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D66"/>
   <mergeCells count="1">

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M224"/>
+  <dimension ref="A1:M232"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A165" sqref="A165:XFD165"/>
@@ -13205,6 +13205,462 @@
         </is>
       </c>
     </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Baxtiyorov ulugbek</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>AD5227398</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>50811075740064</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Yakkasaroy tumani</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>998932407777</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>+998908771777</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Ibragimova Zulxumor Atabek Qizi</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>AD9594019</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>61312067130051</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Urganch shahri</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>998981118202</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>+998957115151</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Ibragimova Dilafruz Atabek qizi</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>AD9535989</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>60912077130051</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Urganch tumani</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>998910141284</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>+998946461284</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qosimov Hikmatilla Lutfulla ogli</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>AD1296541</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>30705910211304</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Yashnaobod tumani</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>998974573333</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>+998974573333</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Abduxoliqov Iskandarbek Davronjon o'gli</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>AD4537927</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>52905076920012</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Fargona viloyati</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Buvayda tumani</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>998908561835</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>+998975301040</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Masharifov masharif murod ogli</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>AD4181861</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>51212057130018</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Xorazm viloyati</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Urganch tumani</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>998200056838</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>+998918686838</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Xoliqov Nuriddin Damirovich</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Mehnat muhofazasi va texnika xavfsizligi</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>AD9119669</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>51710085360046</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Shofirkon tumani</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>998509008511</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>+998501503580</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Hasansher Norboboyev Jaxongir o'g'li</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>AD0949619</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>50307055680025</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Qashqadaryo viloyati</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Kitob tumani</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>998770148278</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>+998770148278</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D66"/>
   <mergeCells count="1">

--- a/file_service/qabul.xlsx
+++ b/file_service/qabul.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M232"/>
+  <dimension ref="A1:M237"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A165" sqref="A165:XFD165"/>
@@ -13661,6 +13661,291 @@
         </is>
       </c>
     </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Ahmadjonov  Doniyorbek Rustamovich</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>AD0562512</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>52107050005111</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Samarqand viloyati</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Samarqand tumani</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>998992240337</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>+998992240337</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Abduraimov Shohjahon Begzodivoch</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>AE1322337</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>50109085540038</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Mirzo Ulugʻbek tumani</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>998911997555</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>+998958127100</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Turg'unboyev Shohrux Sardorovich</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Bugalteriya hisobi</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>AD6720333</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>52011076830021</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Toshkent shahri</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Chilonzor tumani</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>998908270020</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>+998908270020</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Abduraxmanov ibroximjon rustamovich</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Rus tili</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>AD0564279</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>31305795040012</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Andijon viloyati</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Andijon tuman</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>998979996656</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>+998502776657</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Yulduzova Farida</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Yurisprudensiya</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>O'zbek tili</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Kunduzgi</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>AD7674668</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>62107075330022</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Buxoro viloyati</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Peshku tumani</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>998993842777</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>+998992961425</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="D1:D66"/>
   <mergeCells count="1">
